--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -9,15 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
     <sheet name="TC02" sheetId="2" r:id="rId2"/>
     <sheet name="TC03" sheetId="3" r:id="rId3"/>
     <sheet name="TC04" sheetId="4" r:id="rId4"/>
+    <sheet name="TC06" sheetId="6" r:id="rId5"/>
+    <sheet name="TC07" sheetId="7" r:id="rId6"/>
+    <sheet name="TC08" sheetId="8" r:id="rId7"/>
+    <sheet name="TC05" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="265">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -647,9 +651,6 @@
     <t>79227</t>
   </si>
   <si>
-    <t>520733</t>
-  </si>
-  <si>
     <t>41014H258</t>
   </si>
   <si>
@@ -701,9 +702,6 @@
     <t>One</t>
   </si>
   <si>
-    <t>520825</t>
-  </si>
-  <si>
     <t>Eclipse Survivor II IUL</t>
   </si>
   <si>
@@ -713,9 +711,6 @@
     <t>93742</t>
   </si>
   <si>
-    <t>NV</t>
-  </si>
-  <si>
     <t>Carson City</t>
   </si>
   <si>
@@ -746,31 +741,91 @@
     <t>Trust Certification</t>
   </si>
   <si>
-    <t>520913</t>
-  </si>
-  <si>
     <t>PC_DriverLicenseStateAL</t>
   </si>
   <si>
-    <t>520955</t>
-  </si>
-  <si>
-    <t>520957</t>
-  </si>
-  <si>
-    <t>520966</t>
-  </si>
-  <si>
-    <t>521000</t>
-  </si>
-  <si>
-    <t>521007</t>
-  </si>
-  <si>
-    <t>521016</t>
-  </si>
-  <si>
-    <t>521028</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Boise</t>
+  </si>
+  <si>
+    <t>CareMatters I</t>
+  </si>
+  <si>
+    <t>63890A504</t>
+  </si>
+  <si>
+    <t>66869</t>
+  </si>
+  <si>
+    <t>MyEbix_Txn_Id</t>
+  </si>
+  <si>
+    <t>Tran_ID</t>
+  </si>
+  <si>
+    <t>AppID</t>
+  </si>
+  <si>
+    <t>TheLanguage</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>525261</t>
+  </si>
+  <si>
+    <t>EngLang</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>525400</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>525703</t>
+  </si>
+  <si>
+    <t>525549</t>
+  </si>
+  <si>
+    <t>47804V480</t>
+  </si>
+  <si>
+    <t>John Hancock Protection Term</t>
+  </si>
+  <si>
+    <t>525888</t>
+  </si>
+  <si>
+    <t>StateForm</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>ProdJPMC</t>
+  </si>
+  <si>
+    <t>TrusteeForm</t>
+  </si>
+  <si>
+    <t>OwnerTrust</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -863,7 +918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -927,12 +982,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -986,12 +1052,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1378,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP5"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CO2" sqref="CO2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,23 +1812,23 @@
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
+      <c r="D2" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>56</v>
@@ -1994,7 +2074,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -2018,6 +2098,18 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>55</v>
@@ -2524,7 +2616,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2533,28 +2625,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE2"/>
+  <dimension ref="A1:DD2"/>
   <sheetViews>
-    <sheetView topLeftCell="DB1" workbookViewId="0">
-      <selection activeCell="DG9" sqref="DG9"/>
+    <sheetView topLeftCell="CZ1" workbookViewId="0">
+      <selection activeCell="DJ12" sqref="DJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
-    <col min="107" max="107" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="10.26171875" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" width="13.04296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2585,305 +2678,302 @@
       <c r="J1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>169</v>
+      <c r="K1" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="N1" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="Q1" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="27" t="s">
         <v>13</v>
       </c>
+      <c r="S1" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="T1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>16</v>
       </c>
+      <c r="V1" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="W1" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X1" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y1" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z1" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC1" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD1" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE1" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF1" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG1" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH1" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI1" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ1" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK1" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL1" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AM1" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AN1" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AO1" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP1" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AQ1" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR1" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AS1" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AT1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AU1" s="28" t="s">
         <v>42</v>
       </c>
+      <c r="AV1" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="AW1" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BA1" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BB1" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BC1" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BH1" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BM1" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BN1" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BO1" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BP1" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BQ1" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BR1" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BS1" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BT1" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BU1" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BV1" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BW1" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BX1" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BY1" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BZ1" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CA1" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CB1" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="CD1" s="27" t="s">
         <v>132</v>
       </c>
+      <c r="CD1" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="CE1" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CF1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="CG1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="CH1" s="26" t="s">
+      <c r="CG1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CH1" s="30" t="s">
         <v>47</v>
       </c>
+      <c r="CI1" s="36" t="s">
+        <v>181</v>
+      </c>
       <c r="CJ1" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CK1" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL1" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM1" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CN1" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO1" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CP1" s="36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CQ1" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CR1" s="36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="CS1" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CT1" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CU1" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CV1" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="CW1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="CX1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>92</v>
       </c>
+      <c r="CX1" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="CY1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="CZ1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="DA1" s="32" t="s">
+      <c r="CZ1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="DC1" s="34" t="s">
+      <c r="DB1" s="34" t="s">
         <v>49</v>
       </c>
+      <c r="DC1" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="DD1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="DE1" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:109" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -2903,7 +2993,7 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>176</v>
@@ -2915,220 +3005,220 @@
         <v>171</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="O2" s="10" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="W2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW2" s="19" t="s">
+      <c r="AV2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="AY2" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="AZ2" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BB2" s="22" t="s">
+      <c r="BA2" s="22" t="s">
         <v>137</v>
       </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BC2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BG2" s="19" t="s">
+      <c r="BF2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="BI2" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BJ2" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BK2" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BL2" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BM2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BN2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BO2" s="19" t="s">
+      <c r="BN2" s="19" t="s">
         <v>60</v>
       </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="BP2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BU2" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="BV2" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BW2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="BX2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="BY2" s="21" t="s">
+      <c r="BX2" s="21" t="s">
         <v>159</v>
       </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="BZ2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CA2" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="CB2" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CD2" s="21" t="s">
+      <c r="CC2" s="21" t="s">
         <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>85</v>
@@ -3139,86 +3229,83 @@
       <c r="CG2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CH2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ2" s="37" t="s">
+      <c r="CI2" s="37" t="s">
         <v>146</v>
       </c>
+      <c r="CJ2" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="CK2" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CL2" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CM2" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CN2" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CO2" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CR2" s="14">
+      <c r="CQ2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="CS2" s="38" t="s">
+      <c r="CR2" s="38" t="s">
         <v>201</v>
       </c>
+      <c r="CS2" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="CT2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="CU2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CV2" s="14">
+      <c r="CU2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="CW2" s="38" t="s">
+      <c r="CV2" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CW2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="CY2" s="16" t="s">
+      <c r="CX2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="CZ2" s="17" t="s">
+      <c r="CY2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="DA2" s="16" t="s">
+      <c r="CZ2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="DB2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="DC2" s="8" t="s">
+      <c r="DA2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DB2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DD2" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BB1:BH1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CS2" r:id="rId1"/>
-    <hyperlink ref="CW2" r:id="rId2"/>
+    <hyperlink ref="CR2" r:id="rId1"/>
+    <hyperlink ref="CV2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3227,22 +3314,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL3"/>
+  <dimension ref="A1:DK3"/>
   <sheetViews>
-    <sheetView topLeftCell="DJ1" workbookViewId="0">
-      <selection activeCell="DJ15" sqref="DJ15"/>
+    <sheetView topLeftCell="DC1" workbookViewId="0">
+      <selection activeCell="DT8" sqref="DT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="111" max="111" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="116" max="116" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3273,11 +3361,11 @@
       <c r="J1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>6</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="M1" s="39" t="s">
         <v>210</v>
@@ -3288,125 +3376,125 @@
       <c r="O1" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="P1" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>7</v>
       </c>
+      <c r="Q1" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="R1" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="T1" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="U1" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="27" t="s">
         <v>13</v>
       </c>
+      <c r="W1" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="X1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>16</v>
       </c>
+      <c r="Z1" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="AA1" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC1" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD1" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE1" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF1" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG1" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH1" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI1" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ1" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK1" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL1" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM1" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN1" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO1" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AP1" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AQ1" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AR1" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS1" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AT1" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AU1" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AV1" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AW1" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AX1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="28" t="s">
+      <c r="AY1" s="28" t="s">
         <v>42</v>
       </c>
+      <c r="AZ1" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="BA1" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BB1" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="27" t="s">
         <v>101</v>
+      </c>
+      <c r="BC1" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="BD1" s="39" t="s">
         <v>218</v>
@@ -3414,185 +3502,182 @@
       <c r="BE1" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="BF1" s="39" t="s">
-        <v>220</v>
+      <c r="BF1" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BH1" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BM1" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BN1" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BO1" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BP1" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BQ1" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BR1" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BS1" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BT1" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU1" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV1" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BW1" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BX1" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BY1" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BZ1" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CA1" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CB1" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CC1" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CD1" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CE1" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CF1" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CG1" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CH1" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CI1" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CJ1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="CK1" s="27" t="s">
         <v>132</v>
       </c>
+      <c r="CK1" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="CL1" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CM1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="CN1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="CO1" s="26" t="s">
+      <c r="CN1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CP1" s="30" t="s">
+      <c r="CO1" s="30" t="s">
         <v>47</v>
       </c>
+      <c r="CP1" s="36" t="s">
+        <v>181</v>
+      </c>
       <c r="CQ1" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CR1" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS1" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CT1" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CU1" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CV1" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CW1" s="36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CX1" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CY1" s="36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="CZ1" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DA1" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DB1" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DC1" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="DD1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="DE1" s="27" t="s">
+      <c r="DD1" s="27" t="s">
         <v>92</v>
       </c>
+      <c r="DE1" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="DF1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="DG1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" s="32" t="s">
+      <c r="DG1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="DJ1" s="34" t="s">
+      <c r="DI1" s="34" t="s">
         <v>49</v>
       </c>
+      <c r="DJ1" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="DK1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="DL1" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:116" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:115" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -3603,7 +3688,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>175</v>
@@ -3612,253 +3697,253 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="22" t="s">
         <v>215</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="Q2" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="R2" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="Z2" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="AA2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AM2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA2" s="19" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BB2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD2" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="BE2" s="22" t="s">
+      <c r="BE2" s="19" t="s">
         <v>222</v>
       </c>
       <c r="BF2" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BI2" s="22" t="s">
+      <c r="BH2" s="22" t="s">
         <v>137</v>
       </c>
+      <c r="BI2" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BJ2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BN2" s="19" t="s">
+      <c r="BM2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BN2" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="BO2" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="BP2" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BQ2" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BR2" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BS2" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BT2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BV2" s="19" t="s">
+      <c r="BU2" s="19" t="s">
         <v>60</v>
       </c>
+      <c r="BV2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="BW2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CB2" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="CB2" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="CC2" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CD2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="CE2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="CF2" s="21" t="s">
+      <c r="CE2" s="21" t="s">
         <v>159</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="CG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="CH2" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="CI2" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CK2" s="21" t="s">
+      <c r="CJ2" s="21" t="s">
         <v>164</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="CL2" s="4" t="s">
         <v>85</v>
@@ -3869,89 +3954,86 @@
       <c r="CN2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CO2" s="4" t="s">
+      <c r="CO2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="CP2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ2" s="37" t="s">
+      <c r="CP2" s="37" t="s">
         <v>146</v>
       </c>
+      <c r="CQ2" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="CR2" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CS2" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CT2" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CU2" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CV2" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CW2" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CX2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CY2" s="14">
+      <c r="CX2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="CZ2" s="38" t="s">
+      <c r="CY2" s="38" t="s">
         <v>201</v>
       </c>
+      <c r="CZ2" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="DA2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="DB2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="DC2" s="14">
+      <c r="DB2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="DD2" s="38" t="s">
+      <c r="DC2" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="DE2" s="17" t="s">
+      <c r="DD2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="DF2" s="16" t="s">
+      <c r="DE2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="DG2" s="17" t="s">
+      <c r="DF2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="DH2" s="16" t="s">
+      <c r="DG2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="DI2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ2" s="8" t="s">
+      <c r="DH2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DI2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DK2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="BE3" s="40"/>
+    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="BD3" s="40"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BI1:BO1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="BH1:BN1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CZ2" r:id="rId1"/>
-    <hyperlink ref="DD2" r:id="rId2"/>
+    <hyperlink ref="CY2" r:id="rId1"/>
+    <hyperlink ref="DC2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3962,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CU9" sqref="CU9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,8 +4054,8 @@
     <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.26171875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4023,16 +4105,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>11</v>
@@ -4251,7 +4333,7 @@
         <v>92</v>
       </c>
       <c r="CN1" s="31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CO1" s="31" t="s">
         <v>91</v>
@@ -4289,25 +4371,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -4325,16 +4407,16 @@
         <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>59</v>
@@ -4553,7 +4635,7 @@
         <v>89</v>
       </c>
       <c r="CN2" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CO2" s="17" t="s">
         <v>94</v>
@@ -4567,8 +4649,638 @@
       <c r="CR2" s="16" t="s">
         <v>93</v>
       </c>
+      <c r="CS2" s="1">
+        <v>523525</v>
+      </c>
+      <c r="CT2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BE1:BK1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN1" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="CU1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="CV1" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="CO2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CQ2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR2" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="CS2" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -4582,6 +5294,211 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.26171875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.2578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.59375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="TC06" sheetId="6" r:id="rId5"/>
     <sheet name="TC07" sheetId="7" r:id="rId6"/>
     <sheet name="TC08" sheetId="8" r:id="rId7"/>
-    <sheet name="TC05" sheetId="5" r:id="rId8"/>
+    <sheet name="TC09" sheetId="9" r:id="rId8"/>
+    <sheet name="TC05" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="275">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -826,6 +827,36 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>EntitTrustType</t>
+  </si>
+  <si>
+    <t>EntityOwnerType</t>
+  </si>
+  <si>
+    <t>Individual/Person</t>
+  </si>
+  <si>
+    <t>Protection IUL 22</t>
+  </si>
+  <si>
+    <t>47804V241</t>
+  </si>
+  <si>
+    <t>526193</t>
+  </si>
+  <si>
+    <t>526735</t>
+  </si>
+  <si>
+    <t>526740</t>
+  </si>
+  <si>
+    <t>526778</t>
+  </si>
+  <si>
+    <t>526784</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1092,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1458,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2657,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3301,7 +3342,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -4029,7 +4070,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -4661,7 +4702,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5291,7 +5332,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5311,7 +5352,7 @@
     <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.26171875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5368,21 +5409,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.2578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.59375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -5404,8 +5446,14 @@
       <c r="G1" s="41" t="s">
         <v>262</v>
       </c>
+      <c r="H1" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -5426,6 +5474,9 @@
       </c>
       <c r="G2" s="16" t="s">
         <v>264</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5434,6 +5485,1174 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.80859375" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="20"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="4"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="19"/>
+      <c r="CM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="19"/>
+      <c r="CM4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="19"/>
+      <c r="CM5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
-    <sheet name="TC02" sheetId="2" r:id="rId2"/>
-    <sheet name="TC03" sheetId="3" r:id="rId3"/>
-    <sheet name="TC04" sheetId="4" r:id="rId4"/>
-    <sheet name="TC06" sheetId="6" r:id="rId5"/>
-    <sheet name="TC07" sheetId="7" r:id="rId6"/>
-    <sheet name="TC08" sheetId="8" r:id="rId7"/>
-    <sheet name="TC05" sheetId="5" r:id="rId8"/>
+    <sheet name="TC10" sheetId="10" r:id="rId2"/>
+    <sheet name="TC02" sheetId="2" r:id="rId3"/>
+    <sheet name="TC03" sheetId="3" r:id="rId4"/>
+    <sheet name="TC04" sheetId="4" r:id="rId5"/>
+    <sheet name="TC06" sheetId="6" r:id="rId6"/>
+    <sheet name="TC07" sheetId="7" r:id="rId7"/>
+    <sheet name="TC08" sheetId="8" r:id="rId8"/>
+    <sheet name="TC09" sheetId="9" r:id="rId9"/>
+    <sheet name="TC05" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="277">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -826,6 +828,42 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>EntitTrustType</t>
+  </si>
+  <si>
+    <t>EntityOwnerType</t>
+  </si>
+  <si>
+    <t>Individual/Person</t>
+  </si>
+  <si>
+    <t>Protection IUL 22</t>
+  </si>
+  <si>
+    <t>47804V241</t>
+  </si>
+  <si>
+    <t>526784</t>
+  </si>
+  <si>
+    <t>Symetra Protector IUL 5.0</t>
+  </si>
+  <si>
+    <t>68608</t>
+  </si>
+  <si>
+    <t>87151W426</t>
+  </si>
+  <si>
+    <t>526786</t>
+  </si>
+  <si>
+    <t>526826</t>
+  </si>
+  <si>
+    <t>526851</t>
   </si>
 </sst>
 </file>
@@ -880,7 +918,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +952,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -998,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1056,12 +1112,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1458,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,14 +2716,674 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CT8" sqref="CT8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.80859375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD2"/>
   <sheetViews>
@@ -3301,7 +4061,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -3312,7 +4072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK3"/>
   <sheetViews>
@@ -4029,7 +4789,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -4040,12 +4800,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,19 +5421,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,13 +6051,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5311,7 +6071,7 @@
     <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.26171875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5359,73 +6119,6 @@
       </c>
       <c r="G2" t="s">
         <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.2578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.59375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5435,23 +6128,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -5468,13 +6160,19 @@
         <v>242</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>245</v>
+        <v>262</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -5491,14 +6189,1184 @@
         <v>254</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>250</v>
+        <v>264</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="20"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="4"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="19"/>
+      <c r="CM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="19"/>
+      <c r="CM4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="19"/>
+      <c r="CM5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -3,27 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashi.agrawal\Downloads\LifeSpeed_Stability (1)\LifeSpeed_Stability\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
-    <sheet name="TC10" sheetId="10" r:id="rId2"/>
-    <sheet name="TC02" sheetId="2" r:id="rId3"/>
-    <sheet name="TC03" sheetId="3" r:id="rId4"/>
-    <sheet name="TC04" sheetId="4" r:id="rId5"/>
-    <sheet name="TC06" sheetId="6" r:id="rId6"/>
-    <sheet name="TC07" sheetId="7" r:id="rId7"/>
-    <sheet name="TC08" sheetId="8" r:id="rId8"/>
-    <sheet name="TC09" sheetId="9" r:id="rId9"/>
-    <sheet name="TC05" sheetId="5" r:id="rId10"/>
+    <sheet name="TC12" sheetId="12" r:id="rId2"/>
+    <sheet name="TC10" sheetId="10" r:id="rId3"/>
+    <sheet name="TC11" sheetId="11" r:id="rId4"/>
+    <sheet name="TC02" sheetId="2" r:id="rId5"/>
+    <sheet name="TC03" sheetId="3" r:id="rId6"/>
+    <sheet name="TC04" sheetId="4" r:id="rId7"/>
+    <sheet name="TC06" sheetId="6" r:id="rId8"/>
+    <sheet name="TC07" sheetId="7" r:id="rId9"/>
+    <sheet name="TC08" sheetId="8" r:id="rId10"/>
+    <sheet name="TC09" sheetId="9" r:id="rId11"/>
+    <sheet name="TC05" sheetId="5" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="287">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -776,27 +778,12 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>525261</t>
-  </si>
-  <si>
     <t>EngLang</t>
   </si>
   <si>
     <t>Chinese</t>
   </si>
   <si>
-    <t>525400</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>525703</t>
-  </si>
-  <si>
     <t>525549</t>
   </si>
   <si>
@@ -806,9 +793,6 @@
     <t>John Hancock Protection Term</t>
   </si>
   <si>
-    <t>525888</t>
-  </si>
-  <si>
     <t>StateForm</t>
   </si>
   <si>
@@ -845,9 +829,6 @@
     <t>47804V241</t>
   </si>
   <si>
-    <t>526784</t>
-  </si>
-  <si>
     <t>Symetra Protector IUL 5.0</t>
   </si>
   <si>
@@ -857,20 +838,70 @@
     <t>87151W426</t>
   </si>
   <si>
-    <t>526786</t>
-  </si>
-  <si>
-    <t>526826</t>
-  </si>
-  <si>
     <t>526851</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>527051</t>
+  </si>
+  <si>
+    <t>527655</t>
+  </si>
+  <si>
+    <t>527978</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Protection VUL 21</t>
+  </si>
+  <si>
+    <t>41014H100</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>529048</t>
+  </si>
+  <si>
+    <t>PScollected</t>
+  </si>
+  <si>
+    <t>529068</t>
+  </si>
+  <si>
+    <t>529100</t>
+  </si>
+  <si>
+    <t>529138</t>
+  </si>
+  <si>
+    <t>OWNERSAMEASINSURED</t>
+  </si>
+  <si>
+    <t>EBIXSAMPLE</t>
+  </si>
+  <si>
+    <t>529181</t>
+  </si>
+  <si>
+    <t>DL_Number</t>
+  </si>
+  <si>
+    <t>DL_State</t>
+  </si>
+  <si>
+    <t>DL6778788789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1131,7 +1162,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1564,58 +1605,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -2174,7 +2215,1577 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>251</v>
+        <v>280</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF3" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA3" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF4" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH4" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI4" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ4" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL4" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM4" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX4" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA4" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB4" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC4" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA5" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI5" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ5" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM5" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW5" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX5" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC5" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -2716,14 +4327,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2733,12 +4343,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,7 +4368,7 @@
         <v>242</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>245</v>
@@ -2778,13 +4388,13 @@
         <v>244</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>204</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2797,297 +4407,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CT8" sqref="CT8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.80859375" collapsed="true"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AA1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AB1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AC1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="AD1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="AE1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="51" t="s">
+      <c r="AG1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="51" t="s">
+      <c r="AH1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="AI1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="51" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AK1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="51" t="s">
+      <c r="AL1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="51" t="s">
+      <c r="AM1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="51" t="s">
+      <c r="AN1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="51" t="s">
+      <c r="AO1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="51" t="s">
+      <c r="AP1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="51" t="s">
+      <c r="AR1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="51" t="s">
+      <c r="AS1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="51" t="s">
+      <c r="AT1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="50" t="s">
+      <c r="AU1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="49" t="s">
+      <c r="AV1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="49" t="s">
+      <c r="AW1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="49" t="s">
+      <c r="AX1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="49" t="s">
+      <c r="AY1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ1" s="49" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="49" t="s">
+      <c r="BA1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BB1" s="49" t="s">
+      <c r="BB1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BC1" s="49" t="s">
+      <c r="BC1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BD1" s="49" t="s">
+      <c r="BD1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BE1" s="49" t="s">
+      <c r="BE1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BF1" s="49" t="s">
+      <c r="BF1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BG1" s="49" t="s">
+      <c r="BG1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BH1" s="49" t="s">
+      <c r="BH1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BI1" s="49" t="s">
+      <c r="BI1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BJ1" s="49" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BK1" s="49" t="s">
+      <c r="BK1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BL1" s="49" t="s">
+      <c r="BL1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BM1" s="49" t="s">
+      <c r="BM1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BN1" s="49" t="s">
+      <c r="BN1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BO1" s="49" t="s">
+      <c r="BO1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BP1" s="49" t="s">
+      <c r="BP1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BQ1" s="49" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BR1" s="49" t="s">
+      <c r="BR1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BS1" s="49" t="s">
+      <c r="BS1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BT1" s="49" t="s">
+      <c r="BT1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BU1" s="49" t="s">
+      <c r="BU1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BV1" s="49" t="s">
+      <c r="BV1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BW1" s="49" t="s">
+      <c r="BW1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="49" t="s">
+      <c r="BX1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="49" t="s">
+      <c r="BY1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BZ1" s="49" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CA1" s="49" t="s">
+      <c r="CA1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CB1" s="49" t="s">
+      <c r="CB1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CC1" s="49" t="s">
+      <c r="CC1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CD1" s="50" t="s">
+      <c r="CD1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="CE1" s="50" t="s">
+      <c r="CE1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CF1" s="50" t="s">
+      <c r="CF1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="CG1" s="48" t="s">
+      <c r="CG1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="CH1" s="52" t="s">
+      <c r="CH1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="CI1" s="49" t="s">
+      <c r="CI1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="53" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="CK1" s="53" t="s">
+      <c r="CK1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="CL1" s="54" t="s">
+      <c r="CL1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CM1" s="55" t="s">
+      <c r="CM1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="CN1" s="56" t="s">
+      <c r="CN1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="CO1" s="45" t="s">
+      <c r="CO1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CP1" s="45" t="s">
+      <c r="CP1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3102,10 +4711,10 @@
         <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>204</v>
@@ -3117,10 +4726,10 @@
         <v>237</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -3363,7 +4972,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -3377,7 +4986,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3385,26 +4994,1219 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD2"/>
+  <dimension ref="A1:CP2"/>
   <sheetViews>
-    <sheetView topLeftCell="CZ1" workbookViewId="0">
-      <selection activeCell="DJ12" sqref="DJ12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CR2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:96" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BZ2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BC1:BI1">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3753,7 +6555,7 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>176</v>
@@ -4047,7 +6849,7 @@
         <v>93</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="DB2" s="8" t="s">
         <v>87</v>
@@ -4061,7 +6863,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -4072,22 +6874,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK3"/>
   <sheetViews>
-    <sheetView topLeftCell="DC1" workbookViewId="0">
-      <selection activeCell="DT8" sqref="DT8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4371,7 +7173,7 @@
         <v>47</v>
       </c>
       <c r="CP1" s="36" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="CQ1" s="36" t="s">
         <v>182</v>
@@ -4457,7 +7259,7 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>206</v>
@@ -4772,7 +7574,7 @@
         <v>93</v>
       </c>
       <c r="DH2" s="1" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="DI2" s="8" t="s">
         <v>87</v>
@@ -4789,7 +7591,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -4800,7 +7602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -4810,12 +7612,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5409,8 +8211,8 @@
       <c r="CR2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CS2" s="1">
-        <v>523525</v>
+      <c r="CS2" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -5421,14 +8223,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -5438,14 +8240,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5761,7 +8563,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>175</v>
@@ -5776,7 +8578,7 @@
         <v>246</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>227</v>
@@ -6040,7 +8842,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -6051,13 +8853,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6067,12 +8869,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6092,10 +8894,10 @@
         <v>242</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6112,1261 +8914,16 @@
         <v>244</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CD1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CE1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="CF1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CJ1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="CL1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="CM1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="CN1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX2" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ2" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF2" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BH2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI2" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="BK2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BU2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="BV2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="BW2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="BX2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA2" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB2" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC2" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="CJ2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="CK2" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="CL2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CN2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:94" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="4"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="20"/>
-      <c r="CD3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH3" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="4"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="19"/>
-      <c r="CM3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN3" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:94" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="19"/>
-      <c r="CM4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN4" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:94" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="19"/>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="4"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="19"/>
-      <c r="CM5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN5" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -30,6 +30,9 @@
     <sheet name="TC08" sheetId="8" r:id="rId16"/>
     <sheet name="TC09" sheetId="9" r:id="rId17"/>
     <sheet name="TC05" sheetId="5" r:id="rId18"/>
+    <sheet name="TC19" sheetId="19" r:id="rId19"/>
+    <sheet name="TC20" sheetId="20" r:id="rId20"/>
+    <sheet name="TC21" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="315">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -880,9 +883,6 @@
     <t>529100</t>
   </si>
   <si>
-    <t>529138</t>
-  </si>
-  <si>
     <t>OWNERSAMEASINSURED</t>
   </si>
   <si>
@@ -967,7 +967,28 @@
     <t>529746</t>
   </si>
   <si>
-    <t>529765</t>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>529835</t>
+  </si>
+  <si>
+    <t>529845</t>
+  </si>
+  <si>
+    <t>529861</t>
+  </si>
+  <si>
+    <t>529872</t>
+  </si>
+  <si>
+    <t>RunModeData</t>
+  </si>
+  <si>
+    <t>529878</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1266,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1740,598 +1791,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP5"/>
+  <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CC10" sqref="CC10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.80859375" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.80859375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="15" t="s">
+      <c r="CK1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CL1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="CL1" s="18" t="s">
+      <c r="CM1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="AE2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AF2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AH2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AI2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AM2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AN2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AO2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AR2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AS2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="AW2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AX2" s="19" t="s">
+      <c r="AY2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AY2" s="19" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="BA2" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BA2" s="22" t="s">
+      <c r="BB2" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BF2" s="19" t="s">
+      <c r="BG2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BH2" s="22" t="s">
+      <c r="BI2" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="BI2" s="22" t="s">
+      <c r="BJ2" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="BJ2" s="22" t="s">
+      <c r="BK2" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="22" t="s">
+      <c r="BL2" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="BL2" s="22" t="s">
+      <c r="BM2" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="BM2" s="22" t="s">
+      <c r="BN2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BN2" s="19" t="s">
+      <c r="BO2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BU2" s="22" t="s">
+      <c r="BV2" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="BV2" s="22" t="s">
+      <c r="BW2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="BW2" s="22" t="s">
+      <c r="BX2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="BX2" s="21" t="s">
+      <c r="BY2" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CA2" s="22" t="s">
+      <c r="CB2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="CB2" s="22" t="s">
+      <c r="CC2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CC2" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>85</v>
+      <c r="CD2" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>85</v>
@@ -2342,280 +2397,283 @@
       <c r="CG2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" s="14" t="s">
+      <c r="CH2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="17" t="s">
+      <c r="CI2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="CJ2" s="16" t="s">
+      <c r="CK2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="CK2" s="17" t="s">
+      <c r="CL2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="CL2" s="16" t="s">
+      <c r="CM2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:95" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CN2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:94" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="AE3" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AF3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AO3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AR3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AS3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AV3" s="19" t="s">
+      <c r="AW3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AX3" s="19" t="s">
+      <c r="AY3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AY3" s="19" t="s">
+      <c r="AZ3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AZ3" s="21" t="s">
+      <c r="BA3" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BA3" s="22" t="s">
+      <c r="BB3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BF3" s="19" t="s">
+      <c r="BG3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BH3" s="22" t="s">
+      <c r="BI3" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="BI3" s="22" t="s">
+      <c r="BJ3" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="BJ3" s="22" t="s">
+      <c r="BK3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="BK3" s="22" t="s">
+      <c r="BL3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="22" t="s">
+      <c r="BM3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="BM3" s="22" t="s">
+      <c r="BN3" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BN3" s="19" t="s">
+      <c r="BO3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BU3" s="22" t="s">
+      <c r="BV3" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="BV3" s="22" t="s">
+      <c r="BW3" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="BW3" s="22" t="s">
+      <c r="BX3" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="BX3" s="21" t="s">
+      <c r="BY3" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CA3" s="22" t="s">
+      <c r="CB3" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="CB3" s="22" t="s">
+      <c r="CC3" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CC3" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="CD3" s="4" t="s">
-        <v>85</v>
+      <c r="CD3" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="CE3" s="4" t="s">
         <v>85</v>
@@ -2626,280 +2684,283 @@
       <c r="CG3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CH3" s="14" t="s">
+      <c r="CH3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI3" s="17" t="s">
+      <c r="CI3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="CJ3" s="16" t="s">
+      <c r="CK3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="CK3" s="17" t="s">
+      <c r="CL3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="CL3" s="16" t="s">
+      <c r="CM3" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CN3" s="8" t="s">
+      <c r="CO3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CQ3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="AE4" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AF4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AL4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AM4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AN4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN4" s="11" t="s">
+      <c r="AO4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AP4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AR4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AS4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AT4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AV4" s="19" t="s">
+      <c r="AW4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AX4" s="19" t="s">
+      <c r="AY4" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AY4" s="19" t="s">
+      <c r="AZ4" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AZ4" s="21" t="s">
+      <c r="BA4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BA4" s="22" t="s">
+      <c r="BB4" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BF4" s="19" t="s">
+      <c r="BG4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BH4" s="22" t="s">
+      <c r="BI4" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="BI4" s="22" t="s">
+      <c r="BJ4" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="BJ4" s="22" t="s">
+      <c r="BK4" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="BK4" s="22" t="s">
+      <c r="BL4" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="BL4" s="22" t="s">
+      <c r="BM4" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="BM4" s="22" t="s">
+      <c r="BN4" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BN4" s="19" t="s">
+      <c r="BO4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BP4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BQ4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BS4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BS4" s="1" t="s">
+      <c r="BT4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BT4" s="1" t="s">
+      <c r="BU4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BU4" s="22" t="s">
+      <c r="BV4" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="BV4" s="22" t="s">
+      <c r="BW4" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="BW4" s="22" t="s">
+      <c r="BX4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="BX4" s="21" t="s">
+      <c r="BY4" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BZ4" s="1" t="s">
+      <c r="CA4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CA4" s="22" t="s">
+      <c r="CB4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="CB4" s="22" t="s">
+      <c r="CC4" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CC4" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="CD4" s="4" t="s">
-        <v>85</v>
+      <c r="CD4" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="CE4" s="4" t="s">
         <v>85</v>
@@ -2910,280 +2971,283 @@
       <c r="CG4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CH4" s="14" t="s">
+      <c r="CH4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI4" s="17" t="s">
+      <c r="CI4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="CJ4" s="16" t="s">
+      <c r="CK4" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="CK4" s="17" t="s">
+      <c r="CL4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="CL4" s="16" t="s">
+      <c r="CM4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CM4" s="1" t="s">
+      <c r="CN4" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CN4" s="8" t="s">
+      <c r="CO4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CO4" s="1" t="s">
+      <c r="CP4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CQ4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="I5" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="S5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="W5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="X5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="Y5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Z5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AA5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AB5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AC5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AD5" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="AE5" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AF5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AH5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AI5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AI5" s="11" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AK5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AK5" s="11" t="s">
+      <c r="AL5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AM5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AM5" s="11" t="s">
+      <c r="AN5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AN5" s="11" t="s">
+      <c r="AO5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO5" s="11" t="s">
+      <c r="AP5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AQ5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AQ5" s="11" t="s">
+      <c r="AR5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AS5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AS5" s="12" t="s">
+      <c r="AT5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AT5" s="8" t="s">
+      <c r="AU5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AV5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AV5" s="19" t="s">
+      <c r="AW5" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AX5" s="19" t="s">
+      <c r="AY5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AY5" s="19" t="s">
+      <c r="AZ5" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AZ5" s="21" t="s">
+      <c r="BA5" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BA5" s="22" t="s">
+      <c r="BB5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BD5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BF5" s="19" t="s">
+      <c r="BG5" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="BH5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BH5" s="22" t="s">
+      <c r="BI5" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="BI5" s="22" t="s">
+      <c r="BJ5" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="BJ5" s="22" t="s">
+      <c r="BK5" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="BK5" s="22" t="s">
+      <c r="BL5" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="BL5" s="22" t="s">
+      <c r="BM5" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="BM5" s="22" t="s">
+      <c r="BN5" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BN5" s="19" t="s">
+      <c r="BO5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BS5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BS5" s="1" t="s">
+      <c r="BT5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BT5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BU5" s="22" t="s">
+      <c r="BV5" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="BV5" s="22" t="s">
+      <c r="BW5" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="BW5" s="22" t="s">
+      <c r="BX5" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="BX5" s="21" t="s">
+      <c r="BY5" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CA5" s="22" t="s">
+      <c r="CB5" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="CB5" s="22" t="s">
+      <c r="CC5" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CC5" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="CD5" s="4" t="s">
-        <v>85</v>
+      <c r="CD5" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="CE5" s="4" t="s">
         <v>85</v>
@@ -3194,37 +3258,40 @@
       <c r="CG5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CH5" s="14" t="s">
+      <c r="CH5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI5" s="17" t="s">
+      <c r="CI5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="CJ5" s="16" t="s">
+      <c r="CK5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="CK5" s="17" t="s">
+      <c r="CL5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="CL5" s="16" t="s">
+      <c r="CM5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CM5" s="1" t="s">
+      <c r="CN5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CN5" s="8" t="s">
+      <c r="CO5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CO5" s="1" t="s">
+      <c r="CP5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP5" t="s">
+      <c r="CQ5" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  <conditionalFormatting sqref="BB1:BH1">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3292,10 +3359,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>284</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>11</v>
@@ -3564,7 +3631,7 @@
         <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -3582,7 +3649,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>60</v>
@@ -3813,7 +3880,7 @@
         <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CP2" s="8" t="s">
         <v>87</v>
@@ -3827,7 +3894,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4511,7 +4578,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -5239,7 +5306,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -5860,7 +5927,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -5871,7 +5938,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6501,7 +6568,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7815,7 +7882,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7891,6 +7958,601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CO1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD2" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CM2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BB1:BH1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR2"/>
@@ -8043,10 +8705,10 @@
         <v>39</v>
       </c>
       <c r="AS1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT1" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="AU1" s="6" t="s">
         <v>40</v>
@@ -8228,7 +8890,7 @@
         <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -8333,10 +8995,10 @@
         <v>72</v>
       </c>
       <c r="AS2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT2" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="AU2" s="12" t="s">
         <v>83</v>
@@ -8477,7 +9139,7 @@
         <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="CP2" s="8" t="s">
         <v>87</v>
@@ -8491,7 +9153,1248 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN1" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="CU1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="CV1" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="CO2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CQ2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BE1:BK1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:99" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW1" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU1" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="CG1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="CI1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="CJ1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="CK1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="CL1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="CM1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS1" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="CT1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CU1" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CH2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CN2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CQ2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CS2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BF1:BL1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8559,10 +10462,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="P1" s="58" t="s">
         <v>283</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>284</v>
       </c>
       <c r="Q1" s="58" t="s">
         <v>10</v>
@@ -8655,10 +10558,10 @@
         <v>39</v>
       </c>
       <c r="AU1" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV1" s="29" t="s">
         <v>286</v>
-      </c>
-      <c r="AV1" s="29" t="s">
-        <v>287</v>
       </c>
       <c r="AW1" s="29" t="s">
         <v>40</v>
@@ -8840,7 +10743,7 @@
         <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -8855,7 +10758,7 @@
         <v>98</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>271</v>
@@ -8951,10 +10854,10 @@
         <v>72</v>
       </c>
       <c r="AU2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV2" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="AW2" s="12" t="s">
         <v>83</v>
@@ -9065,7 +10968,7 @@
         <v>163</v>
       </c>
       <c r="CG2" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="CH2" s="4" t="s">
         <v>85</v>
@@ -9095,7 +10998,7 @@
         <v>93</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="CR2" s="8" t="s">
         <v>87</v>
@@ -9109,7 +11012,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9125,8 +11028,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="false"/>
+    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
     <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -9449,7 +11352,7 @@
         <v>57</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>97</v>
@@ -9656,7 +11559,7 @@
         <v>163</v>
       </c>
       <c r="CC2" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>85</v>
@@ -9686,7 +11589,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -9700,7 +11603,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9710,8 +11613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9768,7 +11671,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="49" t="s">
         <v>11</v>
@@ -9819,7 +11722,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH1" s="51" t="s">
         <v>27</v>
@@ -9858,16 +11761,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AU1" s="51" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW1" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="AW1" s="51" t="s">
-        <v>287</v>
       </c>
       <c r="AX1" s="51" t="s">
         <v>40</v>
@@ -10049,13 +11952,13 @@
         <v>266</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>97</v>
@@ -10067,7 +11970,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>59</v>
@@ -10163,10 +12066,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW2" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="AX2" s="12" t="s">
         <v>83</v>
@@ -10307,7 +12210,7 @@
         <v>93</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="CS2" s="8" t="s">
         <v>87</v>
@@ -10321,7 +12224,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10673,7 +12576,7 @@
         <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -10934,7 +12837,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -10945,7 +12848,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10955,8 +12858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CH2" sqref="CH2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11011,7 +12914,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="49" t="s">
         <v>11</v>
@@ -11062,7 +12965,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH1" s="51" t="s">
         <v>27</v>
@@ -11101,16 +13004,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AU1" s="51" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW1" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="AW1" s="51" t="s">
-        <v>287</v>
       </c>
       <c r="AX1" s="51" t="s">
         <v>40</v>
@@ -11292,13 +13195,13 @@
         <v>266</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>97</v>
@@ -11310,7 +13213,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>59</v>
@@ -11406,10 +13309,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW2" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="AX2" s="12" t="s">
         <v>83</v>
@@ -11520,7 +13423,7 @@
         <v>163</v>
       </c>
       <c r="CH2" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CI2" s="4" t="s">
         <v>85</v>
@@ -11550,7 +13453,7 @@
         <v>93</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CS2" s="8" t="s">
         <v>87</v>
@@ -11564,7 +13467,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11630,10 +13533,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>284</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>11</v>
@@ -11902,7 +13805,7 @@
         <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -11920,7 +13823,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>60</v>
@@ -12121,7 +14024,7 @@
         <v>163</v>
       </c>
       <c r="CE2" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CF2" s="4" t="s">
         <v>85</v>
@@ -12151,7 +14054,7 @@
         <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CP2" s="8" t="s">
         <v>87</v>
@@ -12165,7 +14068,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12756,7 +14659,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="317">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -989,6 +989,12 @@
   </si>
   <si>
     <t>529878</t>
+  </si>
+  <si>
+    <t>529883</t>
+  </si>
+  <si>
+    <t>529891</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2422,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="CO2" s="8" t="s">
         <v>87</v>
@@ -9791,7 +9797,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\eclipse-workspace\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F357FBC-C23E-4F77-A800-B1337A5E3F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23B4CD-C64C-47DA-AC49-777C458C3815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4835" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="336">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1033,12 +1033,6 @@
     <t>LTF.LapseDate</t>
   </si>
   <si>
-    <t>Month or Monthly</t>
-  </si>
-  <si>
-    <t>Electronic Funds Transfer</t>
-  </si>
-  <si>
     <t>Savings</t>
   </si>
   <si>
@@ -1054,32 +1048,19 @@
     <t>65756867</t>
   </si>
   <si>
-    <t>531588</t>
-  </si>
-  <si>
-    <t>121000358</t>
-  </si>
-  <si>
-    <t>531589</t>
-  </si>
-  <si>
-    <t>531590</t>
-  </si>
-  <si>
-    <t>531594</t>
-  </si>
-  <si>
-    <t>531622</t>
-  </si>
-  <si>
-    <t>531626</t>
+    <t xml:space="preserve">121000358    </t>
+  </si>
+  <si>
+    <t>Quarter or Quarterly</t>
+  </si>
+  <si>
+    <t>532148</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1904,59 +1885,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
@@ -3700,8 +3681,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3981,7 +3962,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s" s="0">
+      <c r="CO1" t="s">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -4280,7 +4261,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4302,18 +4283,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4964,7 +4945,7 @@
       <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s" s="0">
+      <c r="DD2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4991,12 +4972,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5689,7 +5670,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s" s="0">
+      <c r="DK2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5719,12 +5700,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6347,14 +6328,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6976,12 +6957,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7026,7 +7007,7 @@
       <c r="F2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7045,11 +7026,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7103,7 +7084,7 @@
       <c r="G2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7122,58 +7103,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -8243,12 +8224,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8313,8 +8294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8591,7 +8572,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s" s="0">
+      <c r="CN1" t="s">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -8887,7 +8868,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s" s="0">
+      <c r="CQ2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8904,27 +8885,27 @@
   <dimension ref="A1:CX2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BA5" sqref="BA5"/>
+      <selection activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="20.85546875"/>
-    <col min="51" max="51" customWidth="true" width="24.28515625"/>
-    <col min="52" max="52" customWidth="true" width="36.7109375"/>
-    <col min="53" max="53" customWidth="true" width="33.85546875"/>
-    <col min="54" max="54" customWidth="true" width="28.140625"/>
-    <col min="55" max="55" customWidth="true" width="29.0"/>
-    <col min="88" max="88" customWidth="true" width="19.85546875"/>
-    <col min="89" max="89" customWidth="true" width="34.0"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="8.8046875"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="20.85546875" customWidth="1"/>
+    <col min="51" max="51" width="24.28515625" customWidth="1"/>
+    <col min="52" max="52" width="36.7109375" customWidth="1"/>
+    <col min="53" max="53" width="33.85546875" customWidth="1"/>
+    <col min="54" max="54" width="28.140625" customWidth="1"/>
+    <col min="55" max="55" width="29" customWidth="1"/>
+    <col min="88" max="88" width="19.85546875" customWidth="1"/>
+    <col min="89" max="89" width="34" customWidth="1"/>
+    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9085,13 +9066,13 @@
         <v>42</v>
       </c>
       <c r="BA1" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="BB1" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC1" s="61" t="s">
         <v>331</v>
-      </c>
-      <c r="BB1" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC1" s="61" t="s">
-        <v>333</v>
       </c>
       <c r="BD1" s="4" t="s">
         <v>99</v>
@@ -9222,7 +9203,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s" s="0">
+      <c r="CU1" t="s">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -9384,22 +9365,22 @@
         <v>288</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>133</v>
@@ -9531,7 +9512,7 @@
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -9539,7 +9520,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s" s="0">
+      <c r="CX2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9561,8 +9542,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10184,11 +10165,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="15.42578125"/>
-    <col min="8" max="8" customWidth="true" width="16.0"/>
-    <col min="9" max="9" customWidth="true" width="22.0"/>
-    <col min="10" max="10" customWidth="true" width="51.0"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="51" customWidth="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10785,7 +10766,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -10807,10 +10788,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11424,7 +11405,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:CU5"/>
+  <dimension ref="A1:CW5"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AZ12" sqref="AZ12"/>
@@ -11432,16 +11413,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="28.0"/>
-    <col min="7" max="7" customWidth="true" width="17.0"/>
-    <col min="92" max="92" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="94" max="94" customWidth="true" width="92.140625" collapsed="true"/>
-    <col min="95" max="95" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="92" max="92" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="92.140625" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="28" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11730,7 +11711,7 @@
       <c r="CQ1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" t="s" s="0">
+      <c r="CR1" t="s">
         <v>48</v>
       </c>
       <c r="CS1" s="7" t="s">
@@ -12029,16 +12010,16 @@
       <c r="CQ2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>324</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT2" t="s" s="0">
+      <c r="CT2" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -12331,7 +12312,7 @@
       <c r="CS3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CU3" s="0"/>
+      <c r="CU3"/>
     </row>
     <row r="4" spans="1:99" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -12913,8 +12894,8 @@
       <c r="CS5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT5" s="0"/>
-      <c r="CU5" s="0"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
@@ -12941,12 +12922,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13537,7 +13518,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s" s="0">
+      <c r="CT2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -13559,9 +13540,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14128,7 +14109,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s" s="0">
+      <c r="CP2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14150,9 +14131,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14749,7 +14730,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14771,9 +14752,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15395,7 +15376,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15992,7 +15973,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -16014,7 +15995,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16294,7 +16275,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s" s="0">
+      <c r="CO1" t="s">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -16593,7 +16574,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -16615,9 +16596,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17184,7 +17165,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s" s="0">
+      <c r="CP2" t="s">
         <v>166</v>
       </c>
     </row>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\eclipse-workspace\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="337">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1055,12 +1055,16 @@
   </si>
   <si>
     <t>532148</t>
+  </si>
+  <si>
+    <t>532168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1885,59 +1889,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
@@ -3681,8 +3685,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3962,7 +3966,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -4261,7 +4265,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4283,18 +4287,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4949,7 @@
       <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DD2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4972,12 +4976,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5670,7 +5674,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DK2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -5700,12 +5704,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6328,14 +6332,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6957,12 +6961,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,7 +7011,7 @@
       <c r="F2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>257</v>
       </c>
     </row>
@@ -7026,11 +7030,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7084,7 +7088,7 @@
       <c r="G2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>261</v>
       </c>
     </row>
@@ -7103,58 +7107,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -8224,12 +8228,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8294,8 +8298,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8572,7 +8576,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -8868,7 +8872,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CQ2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -8890,22 +8894,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.85546875" customWidth="1"/>
-    <col min="51" max="51" width="24.28515625" customWidth="1"/>
-    <col min="52" max="52" width="36.7109375" customWidth="1"/>
-    <col min="53" max="53" width="33.85546875" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" customWidth="1"/>
-    <col min="55" max="55" width="29" customWidth="1"/>
-    <col min="88" max="88" width="19.85546875" customWidth="1"/>
-    <col min="89" max="89" width="34" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="20.85546875"/>
+    <col min="51" max="51" customWidth="true" width="24.28515625"/>
+    <col min="52" max="52" customWidth="true" width="36.7109375"/>
+    <col min="53" max="53" customWidth="true" width="33.85546875"/>
+    <col min="54" max="54" customWidth="true" width="28.140625"/>
+    <col min="55" max="55" customWidth="true" width="29.0"/>
+    <col min="88" max="88" customWidth="true" width="19.85546875"/>
+    <col min="89" max="89" customWidth="true" width="34.0"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9203,7 +9207,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -9512,7 +9516,7 @@
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -9520,7 +9524,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CX2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -9542,8 +9546,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10165,11 +10169,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="51" customWidth="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" customWidth="true" width="22.0"/>
+    <col min="10" max="10" customWidth="true" width="51.0"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10766,7 +10770,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -10788,10 +10792,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11405,7 +11409,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:CW5"/>
+  <dimension ref="A1:CU5"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AZ12" sqref="AZ12"/>
@@ -11413,16 +11417,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="92" max="92" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="92.140625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="28" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="28.0"/>
+    <col min="7" max="7" customWidth="true" width="17.0"/>
+    <col min="92" max="92" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="94" max="94" customWidth="true" width="92.140625" collapsed="true"/>
+    <col min="95" max="95" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11711,7 +11715,7 @@
       <c r="CQ1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CS1" s="7" t="s">
@@ -12010,16 +12014,16 @@
       <c r="CQ2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>324</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -12312,7 +12316,7 @@
       <c r="CS3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CU3"/>
+      <c r="CU3" s="0"/>
     </row>
     <row r="4" spans="1:99" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -12894,8 +12898,8 @@
       <c r="CS5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT5"/>
-      <c r="CU5"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
@@ -12922,12 +12926,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13518,7 +13522,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -13540,9 +13544,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14109,7 +14113,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14131,9 +14135,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14730,7 +14734,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14752,9 +14756,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15376,7 +15380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15973,7 +15977,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -15995,7 +15999,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16275,7 +16279,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -16574,7 +16578,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -16596,9 +16600,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17165,7 +17169,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\eclipse-workspace\LifeSpeed-main\src\test\java\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23B4CD-C64C-47DA-AC49-777C458C3815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523682E0-F42C-40E8-A494-495D5B5BC877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="336">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1052,9 +1052,6 @@
   </si>
   <si>
     <t>Quarter or Quarterly</t>
-  </si>
-  <si>
-    <t>532148</t>
   </si>
   <si>
     <t>532168</t>
@@ -1064,7 +1061,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1889,59 +1885,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
@@ -3685,8 +3681,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3966,7 +3962,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s" s="0">
+      <c r="CO1" t="s">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -4265,7 +4261,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4287,18 +4283,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4949,7 +4945,7 @@
       <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s" s="0">
+      <c r="DD2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4976,12 +4972,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5674,7 +5670,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s" s="0">
+      <c r="DK2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5704,12 +5700,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6332,14 +6328,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6961,12 +6957,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7011,7 +7007,7 @@
       <c r="F2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7030,11 +7026,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7088,7 +7084,7 @@
       <c r="G2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7107,58 +7103,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -8228,12 +8224,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8298,8 +8294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8576,7 +8572,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s" s="0">
+      <c r="CN1" t="s">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -8872,7 +8868,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s" s="0">
+      <c r="CQ2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8888,28 +8884,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="20.85546875"/>
-    <col min="51" max="51" customWidth="true" width="24.28515625"/>
-    <col min="52" max="52" customWidth="true" width="36.7109375"/>
-    <col min="53" max="53" customWidth="true" width="33.85546875"/>
-    <col min="54" max="54" customWidth="true" width="28.140625"/>
-    <col min="55" max="55" customWidth="true" width="29.0"/>
-    <col min="88" max="88" customWidth="true" width="19.85546875"/>
-    <col min="89" max="89" customWidth="true" width="34.0"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="8.85546875"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="20.85546875" customWidth="1"/>
+    <col min="51" max="51" width="24.28515625" customWidth="1"/>
+    <col min="52" max="52" width="36.7109375" customWidth="1"/>
+    <col min="53" max="53" width="33.85546875" customWidth="1"/>
+    <col min="54" max="54" width="28.140625" customWidth="1"/>
+    <col min="55" max="55" width="29" customWidth="1"/>
+    <col min="88" max="88" width="19.85546875" customWidth="1"/>
+    <col min="89" max="89" width="34" customWidth="1"/>
+    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9207,7 +9203,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s" s="0">
+      <c r="CU1" t="s">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -9516,7 +9512,7 @@
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -9524,7 +9520,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s" s="0">
+      <c r="CX2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9546,8 +9542,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10169,11 +10165,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="15.42578125"/>
-    <col min="8" max="8" customWidth="true" width="16.0"/>
-    <col min="9" max="9" customWidth="true" width="22.0"/>
-    <col min="10" max="10" customWidth="true" width="51.0"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="51" customWidth="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10770,7 +10766,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -10786,16 +10782,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4D2C6-261D-4A7D-B960-A3162D669DB0}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11409,7 +11405,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:CU5"/>
+  <dimension ref="A1:CW5"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AZ12" sqref="AZ12"/>
@@ -11417,16 +11413,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="28.0"/>
-    <col min="7" max="7" customWidth="true" width="17.0"/>
-    <col min="92" max="92" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="94" max="94" customWidth="true" width="92.140625" collapsed="true"/>
-    <col min="95" max="95" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="92" max="92" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="92.140625" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="28" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11715,7 +11711,7 @@
       <c r="CQ1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" t="s" s="0">
+      <c r="CR1" t="s">
         <v>48</v>
       </c>
       <c r="CS1" s="7" t="s">
@@ -12014,16 +12010,16 @@
       <c r="CQ2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>324</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT2" t="s" s="0">
+      <c r="CT2" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -12316,7 +12312,7 @@
       <c r="CS3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CU3" s="0"/>
+      <c r="CU3"/>
     </row>
     <row r="4" spans="1:99" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -12898,8 +12894,8 @@
       <c r="CS5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT5" s="0"/>
-      <c r="CU5" s="0"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
@@ -12926,12 +12922,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13522,7 +13518,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s" s="0">
+      <c r="CT2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -13544,9 +13540,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14113,7 +14109,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s" s="0">
+      <c r="CP2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14135,9 +14131,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14734,7 +14730,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14756,9 +14752,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15380,7 +15376,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15977,7 +15973,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -15999,7 +15995,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16279,7 +16275,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s" s="0">
+      <c r="CO1" t="s">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -16578,7 +16574,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -16600,9 +16596,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17169,7 +17165,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s" s="0">
+      <c r="CP2" t="s">
         <v>166</v>
       </c>
     </row>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523682E0-F42C-40E8-A494-495D5B5BC877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AADCA3-8602-47EB-BEAB-E6AE9FA89094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="351">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -973,9 +973,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>529845</t>
-  </si>
-  <si>
     <t>RunModeData</t>
   </si>
   <si>
@@ -1021,9 +1018,6 @@
     <t>Green Card</t>
   </si>
   <si>
-    <t>531368</t>
-  </si>
-  <si>
     <t>BGA</t>
   </si>
   <si>
@@ -1051,17 +1045,69 @@
     <t xml:space="preserve">121000358    </t>
   </si>
   <si>
-    <t>Quarter or Quarterly</t>
-  </si>
-  <si>
-    <t>532168</t>
+    <t>C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\Files\sample.pdf</t>
+  </si>
+  <si>
+    <t>532321</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>yashi.agrawal@zinnia.com</t>
+  </si>
+  <si>
+    <t>Yashi</t>
+  </si>
+  <si>
+    <t>FD_AnticipatedYes</t>
+  </si>
+  <si>
+    <t>TheData</t>
+  </si>
+  <si>
+    <t>532452</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Zinnia</t>
+  </si>
+  <si>
+    <t>532481</t>
+  </si>
+  <si>
+    <t>532485</t>
+  </si>
+  <si>
+    <t>532487</t>
+  </si>
+  <si>
+    <t>532491</t>
+  </si>
+  <si>
+    <t>532513</t>
+  </si>
+  <si>
+    <t>532518</t>
+  </si>
+  <si>
+    <t>532524</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1106,6 +1152,19 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1244,7 +1303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1327,6 +1386,13 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1885,64 +1951,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2502,7 +2568,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -3681,8 +3747,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3962,7 +4028,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -4261,7 +4327,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4283,18 +4349,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4945,7 +5011,7 @@
       <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DD2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4972,12 +5038,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5670,7 +5736,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DK2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -5700,12 +5766,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6328,14 +6394,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6957,12 +7023,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,7 +7073,7 @@
       <c r="F2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>257</v>
       </c>
     </row>
@@ -7026,11 +7092,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7084,7 +7150,7 @@
       <c r="G2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>261</v>
       </c>
     </row>
@@ -7103,58 +7169,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -8224,12 +8290,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8294,8 +8360,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8572,7 +8638,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -8860,7 +8926,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -8868,7 +8934,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CQ2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -8884,28 +8950,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CX2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.85546875" customWidth="1"/>
-    <col min="51" max="51" width="24.28515625" customWidth="1"/>
-    <col min="52" max="52" width="36.7109375" customWidth="1"/>
-    <col min="53" max="53" width="33.85546875" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" customWidth="1"/>
-    <col min="55" max="55" width="29" customWidth="1"/>
-    <col min="88" max="88" width="19.85546875" customWidth="1"/>
-    <col min="89" max="89" width="34" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="20.85546875"/>
+    <col min="51" max="51" customWidth="true" width="24.28515625"/>
+    <col min="52" max="52" customWidth="true" width="36.7109375"/>
+    <col min="53" max="53" customWidth="true" width="33.85546875"/>
+    <col min="54" max="54" customWidth="true" width="28.140625"/>
+    <col min="55" max="55" customWidth="true" width="29.0"/>
+    <col min="88" max="88" customWidth="true" width="19.85546875"/>
+    <col min="89" max="89" customWidth="true" width="34.0"/>
+    <col min="97" max="97" customWidth="true" width="21.0"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8928,7 +8995,7 @@
         <v>168</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>177</v>
@@ -9066,13 +9133,13 @@
         <v>42</v>
       </c>
       <c r="BA1" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="BB1" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="BC1" s="61" t="s">
         <v>329</v>
-      </c>
-      <c r="BB1" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="BC1" s="61" t="s">
-        <v>331</v>
       </c>
       <c r="BD1" s="4" t="s">
         <v>99</v>
@@ -9174,7 +9241,7 @@
         <v>131</v>
       </c>
       <c r="CK1" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="CL1" s="5" t="s">
         <v>43</v>
@@ -9203,7 +9270,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -9216,7 +9283,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:102" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -9266,7 +9333,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>60</v>
@@ -9364,23 +9431,23 @@
       <c r="AW2" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AX2" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>170</v>
+      <c r="AX2" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="AY2" s="62" t="s">
+        <v>320</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>133</v>
@@ -9506,13 +9573,13 @@
         <v>96</v>
       </c>
       <c r="CS2" s="16" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="CT2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -9520,7 +9587,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CX2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -9542,8 +9609,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10165,11 +10232,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="51" customWidth="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" customWidth="true" width="22.0"/>
+    <col min="10" max="10" customWidth="true" width="51.0"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10752,7 +10819,7 @@
         <v>96</v>
       </c>
       <c r="CP2" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CQ2" s="15" t="s">
         <v>93</v>
@@ -10766,7 +10833,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -10782,16 +10849,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4D2C6-261D-4A7D-B960-A3162D669DB0}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11096,7 +11163,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:100" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -11125,7 +11192,7 @@
         <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -11245,7 +11312,7 @@
         <v>83</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>75</v>
@@ -11374,19 +11441,19 @@
         <v>235</v>
       </c>
       <c r="CO2" s="57" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="CP2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CQ2" s="57" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="CR2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -11405,27 +11472,31 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:CW5"/>
+  <dimension ref="A1:DB5"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AZ12" sqref="AZ12"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="92" max="92" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="92.140625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="28" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="28.0"/>
+    <col min="7" max="7" customWidth="true" width="17.0"/>
+    <col min="11" max="11" customWidth="true" width="34.42578125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="27.42578125"/>
+    <col min="57" max="57" customWidth="true" width="24.7109375"/>
+    <col min="58" max="58" customWidth="true" width="27.42578125"/>
+    <col min="99" max="99" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="100" max="100" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" width="92.140625" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11457,274 +11528,295 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="BA1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BD1" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="BE1" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="BF1" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CO1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="CL1" s="12" t="s">
+      <c r="CS1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CN1" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="CO1" s="14" t="s">
+      <c r="CU1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="CV1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" s="14" t="s">
+      <c r="CW1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" s="17" t="s">
+      <c r="CX1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CY1" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -11753,277 +11845,298 @@
         <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z2" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="AA2" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X2" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="AR2" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AS2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA2" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB2" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BD2" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE2" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BK2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BS2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BT2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BV2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BW2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ2" s="17" t="s">
+      <c r="BX2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="CF2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ2" s="17" t="s">
+      <c r="CG2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CH2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CI2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE2" s="17" t="s">
+      <c r="CL2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF2" s="17" t="s">
+      <c r="CM2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG2" s="17" t="s">
+      <c r="CN2" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CO2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="4" t="s">
+      <c r="CP2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ2" s="4" t="s">
+      <c r="CQ2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="4" t="s">
+      <c r="CR2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL2" s="13" t="s">
+      <c r="CS2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM2" s="16" t="s">
+      <c r="CT2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN2" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO2" s="15" t="s">
+      <c r="CU2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CV2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ2" s="15" t="s">
+      <c r="CW2" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CX2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR2" t="s">
-        <v>324</v>
-      </c>
-      <c r="CS2" s="7" t="s">
+      <c r="CY2" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="CZ2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DA2" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DB2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:99" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -12052,269 +12165,298 @@
         <v>266</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="X3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="Y3" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z3" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="AA3" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X3" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AM3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AN3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ3" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="AR3" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AS3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AY3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA3" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB3" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BD3" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE3" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BK3" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE3" s="17" t="s">
+      <c r="BL3" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL3" s="17" t="s">
+      <c r="BS3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM3" s="17" t="s">
+      <c r="BT3" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN3" s="17" t="s">
+      <c r="BU3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO3" s="17" t="s">
+      <c r="BV3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP3" s="17" t="s">
+      <c r="BW3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ3" s="17" t="s">
+      <c r="BX3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY3" s="17" t="s">
+      <c r="CF3" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ3" s="17" t="s">
+      <c r="CG3" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA3" s="17" t="s">
+      <c r="CH3" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB3" s="17" t="s">
+      <c r="CI3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE3" s="17" t="s">
+      <c r="CL3" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF3" s="17" t="s">
+      <c r="CM3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG3" s="17" t="s">
+      <c r="CN3" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CO3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CP3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ3" s="4" t="s">
+      <c r="CQ3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK3" s="4" t="s">
+      <c r="CR3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL3" s="13" t="s">
+      <c r="CS3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM3" s="16" t="s">
+      <c r="CT3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN3" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO3" s="15" t="s">
+      <c r="CU3" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CV3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP3" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ3" s="15" t="s">
+      <c r="CW3" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CX3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CS3" s="7" t="s">
+      <c r="CY3" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="CZ3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CU3"/>
+      <c r="DA3" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DB3" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
-    <row r="4" spans="1:99" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -12343,269 +12485,298 @@
         <v>263</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="X4" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="Y4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z4" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="AA4" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X4" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AM4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AN4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AO4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AP4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="AR4" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AS4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT4" s="10" t="s">
+      <c r="AW4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU4" s="10" t="s">
+      <c r="AX4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV4" s="10" t="s">
+      <c r="AY4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AZ4" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA4" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB4" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BD4" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE4" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BH4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD4" s="17" t="s">
+      <c r="BK4" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE4" s="17" t="s">
+      <c r="BL4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BM4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG4" s="1" t="s">
+      <c r="BN4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BP4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BR4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL4" s="17" t="s">
+      <c r="BS4" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM4" s="17" t="s">
+      <c r="BT4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN4" s="17" t="s">
+      <c r="BU4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO4" s="17" t="s">
+      <c r="BV4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP4" s="17" t="s">
+      <c r="BW4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ4" s="17" t="s">
+      <c r="BX4" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BY4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS4" s="1" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT4" s="1" t="s">
+      <c r="CA4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="CB4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV4" s="1" t="s">
+      <c r="CC4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW4" s="1" t="s">
+      <c r="CD4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="CE4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY4" s="17" t="s">
+      <c r="CF4" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ4" s="17" t="s">
+      <c r="CG4" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA4" s="17" t="s">
+      <c r="CH4" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB4" s="17" t="s">
+      <c r="CI4" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC4" s="1" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CK4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE4" s="17" t="s">
+      <c r="CL4" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF4" s="17" t="s">
+      <c r="CM4" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG4" s="17" t="s">
+      <c r="CN4" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH4" s="4" t="s">
+      <c r="CO4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI4" s="4" t="s">
+      <c r="CP4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ4" s="4" t="s">
+      <c r="CQ4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK4" s="4" t="s">
+      <c r="CR4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL4" s="13" t="s">
+      <c r="CS4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM4" s="16" t="s">
+      <c r="CT4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN4" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO4" s="15" t="s">
+      <c r="CU4" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CV4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP4" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ4" s="15" t="s">
+      <c r="CW4" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CX4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR4" s="1"/>
-      <c r="CS4" s="7" t="s">
+      <c r="CY4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CZ4" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="DA4" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DB4" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
-    <row r="5" spans="1:99" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -12634,281 +12805,314 @@
         <v>240</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="W5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="X5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z5" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W5" s="58" t="s">
+      <c r="AA5" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X5" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AD5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AF5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AH5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AJ5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AK5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AL5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AM5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AN5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AO5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AP5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AQ5" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ5" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="AR5" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AS5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AW5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AX5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AY5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AZ5" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA5" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB5" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BD5" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE5" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BH5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BI5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD5" s="17" t="s">
+      <c r="BK5" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE5" s="17" t="s">
+      <c r="BL5" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH5" s="1" t="s">
+      <c r="BO5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK5" s="4" t="s">
+      <c r="BR5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL5" s="17" t="s">
+      <c r="BS5" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM5" s="17" t="s">
+      <c r="BT5" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN5" s="17" t="s">
+      <c r="BU5" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO5" s="17" t="s">
+      <c r="BV5" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP5" s="17" t="s">
+      <c r="BW5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ5" s="17" t="s">
+      <c r="BX5" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BY5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="CB5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV5" s="1" t="s">
+      <c r="CC5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW5" s="1" t="s">
+      <c r="CD5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CE5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY5" s="17" t="s">
+      <c r="CF5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ5" s="17" t="s">
+      <c r="CG5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA5" s="17" t="s">
+      <c r="CH5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB5" s="17" t="s">
+      <c r="CI5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC5" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE5" s="17" t="s">
+      <c r="CL5" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF5" s="17" t="s">
+      <c r="CM5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG5" s="17" t="s">
+      <c r="CN5" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH5" s="4" t="s">
+      <c r="CO5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI5" s="4" t="s">
+      <c r="CP5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ5" s="4" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK5" s="4" t="s">
+      <c r="CR5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL5" s="13" t="s">
+      <c r="CS5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM5" s="16" t="s">
+      <c r="CT5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN5" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO5" s="15" t="s">
+      <c r="CU5" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CV5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP5" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ5" s="15" t="s">
+      <c r="CW5" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CX5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CS5" s="7" t="s">
+      <c r="CY5" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="CZ5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT5"/>
-      <c r="CU5"/>
+      <c r="DA5" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DB5" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BE1:BK1">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="BL1:BR1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CP5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
-    <hyperlink ref="CP2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
-    <hyperlink ref="CP3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
-    <hyperlink ref="CP4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
+    <hyperlink ref="CW5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
+    <hyperlink ref="CW2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
+    <hyperlink ref="CW3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
+    <hyperlink ref="CW4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{721FA9B2-F109-405F-86F0-1EB4BC06ABA9}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{753A28FB-2163-4294-ABD6-E13FD8457408}"/>
+    <hyperlink ref="K4" r:id="rId7" xr:uid="{2CB3386A-B778-4957-9DBE-71A4C8C1D272}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{5CF1B7D3-ED9F-42CC-8969-22A1CC706343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -12922,12 +13126,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13518,7 +13722,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -13540,9 +13744,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14109,7 +14313,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14131,9 +14335,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14730,7 +14934,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14752,9 +14956,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15376,7 +15580,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15973,7 +16177,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -15995,7 +16199,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16275,7 +16479,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -16574,7 +16778,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -16596,9 +16800,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17165,7 +17369,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AADCA3-8602-47EB-BEAB-E6AE9FA89094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284652C-FD79-4BF4-8CF8-7E229A1F6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="352">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1090,16 +1090,19 @@
     <t>532487</t>
   </si>
   <si>
-    <t>532491</t>
-  </si>
-  <si>
-    <t>532513</t>
-  </si>
-  <si>
-    <t>532518</t>
-  </si>
-  <si>
     <t>532524</t>
+  </si>
+  <si>
+    <t>532525</t>
+  </si>
+  <si>
+    <t>532530</t>
+  </si>
+  <si>
+    <t>532531</t>
+  </si>
+  <si>
+    <t>532532</t>
   </si>
 </sst>
 </file>
@@ -11472,31 +11475,31 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:DB5"/>
+  <dimension ref="A1:DC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" customWidth="true" width="28.0"/>
     <col min="7" max="7" customWidth="true" width="17.0"/>
-    <col min="11" max="11" customWidth="true" width="34.42578125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="27.42578125"/>
-    <col min="57" max="57" customWidth="true" width="24.7109375"/>
-    <col min="58" max="58" customWidth="true" width="27.42578125"/>
-    <col min="99" max="99" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="100" max="100" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="101" max="101" customWidth="true" width="92.140625" collapsed="true"/>
-    <col min="102" max="102" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="34.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="27.42578125"/>
+    <col min="58" max="58" customWidth="true" width="24.7109375"/>
+    <col min="59" max="59" customWidth="true" width="27.42578125"/>
+    <col min="100" max="100" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" width="92.140625" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="8.8046875" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11525,298 +11528,301 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BD1" s="61" t="s">
+      <c r="BE1" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="BE1" s="61" t="s">
+      <c r="BF1" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="BF1" s="61" t="s">
+      <c r="BG1" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="CS1" s="12" t="s">
+      <c r="CT1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="CV1" s="14" t="s">
+      <c r="CW1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="CW1" s="14" t="s">
+      <c r="CX1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="CX1" s="17" t="s">
+      <c r="CY1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CY1" t="s" s="0">
+      <c r="CZ1" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:106" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -11845,256 +11851,256 @@
         <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="L2" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="Z2" s="58" t="s">
+      <c r="AA2" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="AA2" s="59" t="s">
+      <c r="AB2" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="AL2" s="10" t="s">
         <v>73</v>
       </c>
       <c r="AM2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="BA2" s="62" t="s">
+      <c r="BB2" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="BB2" s="63" t="s">
+      <c r="BC2" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BD2" s="60" t="s">
+      <c r="BE2" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="BE2" s="60" t="s">
+      <c r="BF2" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BM2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BT2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BU2" s="17" t="s">
+      <c r="BV2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BV2" s="17" t="s">
+      <c r="BW2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BW2" s="17" t="s">
+      <c r="BX2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BX2" s="17" t="s">
+      <c r="BY2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CF2" s="17" t="s">
+      <c r="CG2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="CG2" s="17" t="s">
+      <c r="CH2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CH2" s="17" t="s">
+      <c r="CI2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CI2" s="17" t="s">
+      <c r="CJ2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CL2" s="17" t="s">
+      <c r="CM2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CM2" s="17" t="s">
+      <c r="CN2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CO2" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="CO2" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="CP2" s="4" t="s">
         <v>85</v>
@@ -12105,38 +12111,41 @@
       <c r="CR2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CS2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CT2" s="16" t="s">
+      <c r="CT2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CU2" s="16" t="s">
+      <c r="CV2" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="CV2" s="15" t="s">
+      <c r="CW2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CW2" s="57" t="s">
+      <c r="CX2" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="CX2" s="15" t="s">
+      <c r="CY2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY2" t="s" s="0">
-        <v>350</v>
-      </c>
-      <c r="CZ2" s="7" t="s">
+      <c r="CZ2" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="DA2" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="DA2" t="s" s="0">
-        <v>166</v>
       </c>
       <c r="DB2" t="s" s="0">
         <v>166</v>
       </c>
+      <c r="DC2" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -12165,256 +12174,256 @@
         <v>266</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="Y3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Z3" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="Z3" s="58" t="s">
+      <c r="AA3" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="AA3" s="59" t="s">
+      <c r="AB3" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="AL3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="AM3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AR3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AS3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AT3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AU3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AV3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AY3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="BA3" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="BA3" s="62" t="s">
+      <c r="BB3" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="BB3" s="63" t="s">
+      <c r="BC3" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BD3" s="60" t="s">
+      <c r="BE3" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="BE3" s="60" t="s">
+      <c r="BF3" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BK3" s="17" t="s">
+      <c r="BL3" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BL3" s="17" t="s">
+      <c r="BM3" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BS3" s="17" t="s">
+      <c r="BT3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BT3" s="17" t="s">
+      <c r="BU3" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BU3" s="17" t="s">
+      <c r="BV3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BV3" s="17" t="s">
+      <c r="BW3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BW3" s="17" t="s">
+      <c r="BX3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BX3" s="17" t="s">
+      <c r="BY3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CF3" s="17" t="s">
+      <c r="CG3" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="CG3" s="17" t="s">
+      <c r="CH3" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CH3" s="17" t="s">
+      <c r="CI3" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CI3" s="17" t="s">
+      <c r="CJ3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CL3" s="17" t="s">
+      <c r="CM3" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CM3" s="17" t="s">
+      <c r="CN3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CN3" s="17" t="s">
+      <c r="CO3" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="CO3" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="CP3" s="4" t="s">
         <v>85</v>
@@ -12425,38 +12434,41 @@
       <c r="CR3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CS3" s="13" t="s">
+      <c r="CS3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CT3" s="16" t="s">
+      <c r="CT3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CU3" s="16" t="s">
+      <c r="CV3" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="CV3" s="15" t="s">
+      <c r="CW3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CW3" s="57" t="s">
+      <c r="CX3" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="CX3" s="15" t="s">
+      <c r="CY3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY3" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="CZ3" s="7" t="s">
+      <c r="CZ3" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="DA3" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="DA3" t="s" s="0">
-        <v>166</v>
       </c>
       <c r="DB3" t="s" s="0">
         <v>166</v>
       </c>
+      <c r="DC3" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:107" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -12485,256 +12497,256 @@
         <v>263</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="L4" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="Y4" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Z4" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="Z4" s="58" t="s">
+      <c r="AA4" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="AA4" s="59" t="s">
+      <c r="AB4" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="AL4" s="10" t="s">
         <v>73</v>
       </c>
       <c r="AM4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AO4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AP4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AR4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AR4" s="10" t="s">
+      <c r="AS4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AT4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AT4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AU4" s="10" t="s">
+      <c r="AV4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AV4" s="10" t="s">
+      <c r="AW4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AW4" s="10" t="s">
+      <c r="AX4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AX4" s="10" t="s">
+      <c r="AY4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AY4" s="10" t="s">
+      <c r="AZ4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AZ4" s="10" t="s">
+      <c r="BA4" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="BA4" s="62" t="s">
+      <c r="BB4" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="BB4" s="63" t="s">
+      <c r="BC4" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BD4" s="60" t="s">
+      <c r="BE4" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="BE4" s="60" t="s">
+      <c r="BF4" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BG4" s="1" t="s">
+      <c r="BH4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BK4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BK4" s="17" t="s">
+      <c r="BL4" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BL4" s="17" t="s">
+      <c r="BM4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BM4" s="1" t="s">
+      <c r="BN4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BN4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BP4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BQ4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BR4" s="4" t="s">
+      <c r="BS4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BS4" s="17" t="s">
+      <c r="BT4" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BT4" s="17" t="s">
+      <c r="BU4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BU4" s="17" t="s">
+      <c r="BV4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BV4" s="17" t="s">
+      <c r="BW4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BW4" s="17" t="s">
+      <c r="BX4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BX4" s="17" t="s">
+      <c r="BY4" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BZ4" s="1" t="s">
+      <c r="CA4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CA4" s="1" t="s">
+      <c r="CB4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CB4" s="1" t="s">
+      <c r="CC4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CC4" s="1" t="s">
+      <c r="CD4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CE4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CE4" s="1" t="s">
+      <c r="CF4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CF4" s="17" t="s">
+      <c r="CG4" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="CG4" s="17" t="s">
+      <c r="CH4" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CH4" s="17" t="s">
+      <c r="CI4" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CI4" s="17" t="s">
+      <c r="CJ4" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CJ4" s="1" t="s">
+      <c r="CK4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CK4" s="1" t="s">
+      <c r="CL4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CL4" s="17" t="s">
+      <c r="CM4" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CM4" s="17" t="s">
+      <c r="CN4" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CN4" s="17" t="s">
+      <c r="CO4" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="CO4" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="CP4" s="4" t="s">
         <v>85</v>
@@ -12745,38 +12757,41 @@
       <c r="CR4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CS4" s="13" t="s">
+      <c r="CS4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CT4" s="16" t="s">
+      <c r="CT4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CU4" s="16" t="s">
+      <c r="CV4" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="CV4" s="15" t="s">
+      <c r="CW4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CW4" s="57" t="s">
+      <c r="CX4" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="CX4" s="15" t="s">
+      <c r="CY4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY4" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CZ4" s="7" t="s">
+      <c r="CZ4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="DA4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="DA4" t="s" s="0">
-        <v>166</v>
       </c>
       <c r="DB4" t="s" s="0">
         <v>166</v>
       </c>
+      <c r="DC4" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -12805,256 +12820,256 @@
         <v>240</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="L5" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="X5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Z5" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="Z5" s="58" t="s">
+      <c r="AA5" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="AA5" s="59" t="s">
+      <c r="AB5" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AD5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AF5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AH5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AJ5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AK5" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="AL5" s="10" t="s">
         <v>73</v>
       </c>
       <c r="AM5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AO5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AP5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AP5" s="10" t="s">
+      <c r="AQ5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AR5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AR5" s="10" t="s">
+      <c r="AS5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AT5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AU5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AV5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AW5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AX5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AY5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AZ5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AZ5" s="10" t="s">
+      <c r="BA5" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="BA5" s="62" t="s">
+      <c r="BB5" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="BB5" s="63" t="s">
+      <c r="BC5" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BD5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BD5" s="60" t="s">
+      <c r="BE5" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="BE5" s="60" t="s">
+      <c r="BF5" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BG5" s="1" t="s">
+      <c r="BH5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BH5" s="1" t="s">
+      <c r="BI5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="BK5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BK5" s="17" t="s">
+      <c r="BL5" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BL5" s="17" t="s">
+      <c r="BM5" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BM5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BN5" s="1" t="s">
+      <c r="BO5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BR5" s="4" t="s">
+      <c r="BS5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BS5" s="17" t="s">
+      <c r="BT5" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BT5" s="17" t="s">
+      <c r="BU5" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BU5" s="17" t="s">
+      <c r="BV5" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BV5" s="17" t="s">
+      <c r="BW5" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BW5" s="17" t="s">
+      <c r="BX5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BX5" s="17" t="s">
+      <c r="BY5" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CB5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CB5" s="1" t="s">
+      <c r="CC5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CC5" s="1" t="s">
+      <c r="CD5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CE5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CE5" s="1" t="s">
+      <c r="CF5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CF5" s="17" t="s">
+      <c r="CG5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="CG5" s="17" t="s">
+      <c r="CH5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CH5" s="17" t="s">
+      <c r="CI5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CI5" s="17" t="s">
+      <c r="CJ5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CK5" s="1" t="s">
+      <c r="CL5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CL5" s="17" t="s">
+      <c r="CM5" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CM5" s="17" t="s">
+      <c r="CN5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CN5" s="17" t="s">
+      <c r="CO5" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="CO5" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="CP5" s="4" t="s">
         <v>85</v>
@@ -13065,51 +13080,54 @@
       <c r="CR5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CS5" s="13" t="s">
+      <c r="CS5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CT5" s="16" t="s">
+      <c r="CT5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CU5" s="16" t="s">
+      <c r="CV5" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="CV5" s="15" t="s">
+      <c r="CW5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CW5" s="57" t="s">
+      <c r="CX5" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="CX5" s="15" t="s">
+      <c r="CY5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY5" t="s" s="0">
-        <v>346</v>
-      </c>
-      <c r="CZ5" s="7" t="s">
+      <c r="CZ5" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="DA5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA5" t="s" s="0">
+      <c r="DB5" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB5" t="s" s="0">
+      <c r="DC5" t="s" s="0">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="BL1:BR1">
+  <conditionalFormatting sqref="BM1:BS1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CW5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
-    <hyperlink ref="CW2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
-    <hyperlink ref="CW3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
-    <hyperlink ref="CW4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{721FA9B2-F109-405F-86F0-1EB4BC06ABA9}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{753A28FB-2163-4294-ABD6-E13FD8457408}"/>
-    <hyperlink ref="K4" r:id="rId7" xr:uid="{2CB3386A-B778-4957-9DBE-71A4C8C1D272}"/>
-    <hyperlink ref="K5" r:id="rId8" xr:uid="{5CF1B7D3-ED9F-42CC-8969-22A1CC706343}"/>
+    <hyperlink ref="CX5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
+    <hyperlink ref="CX2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
+    <hyperlink ref="CX3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
+    <hyperlink ref="CX4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{721FA9B2-F109-405F-86F0-1EB4BC06ABA9}"/>
+    <hyperlink ref="L3" r:id="rId6" xr:uid="{753A28FB-2163-4294-ABD6-E13FD8457408}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{2CB3386A-B778-4957-9DBE-71A4C8C1D272}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{5CF1B7D3-ED9F-42CC-8969-22A1CC706343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66100A95-8C16-4E52-895E-6C10287032B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65ED42B-6472-4F65-A7DE-C6BAE59345B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7141" uniqueCount="445">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1305,13 +1305,93 @@
     <t>PrCollected</t>
   </si>
   <si>
-    <t>533598</t>
+    <t>You have been successfully logged out.
+Please close this browser window.</t>
+  </si>
+  <si>
+    <t>TheCloseText</t>
+  </si>
+  <si>
+    <t>RoleChange</t>
+  </si>
+  <si>
+    <t>534012</t>
+  </si>
+  <si>
+    <t>RoleChangeSU</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>534013</t>
+  </si>
+  <si>
+    <t>534019</t>
+  </si>
+  <si>
+    <t>534039</t>
+  </si>
+  <si>
+    <t>534043</t>
+  </si>
+  <si>
+    <t>534044</t>
+  </si>
+  <si>
+    <t>534047</t>
+  </si>
+  <si>
+    <t>534048</t>
+  </si>
+  <si>
+    <t>534049</t>
+  </si>
+  <si>
+    <t>534050</t>
+  </si>
+  <si>
+    <t>534051</t>
+  </si>
+  <si>
+    <t>534053</t>
+  </si>
+  <si>
+    <t>534054</t>
+  </si>
+  <si>
+    <t>534058</t>
+  </si>
+  <si>
+    <t>534061</t>
+  </si>
+  <si>
+    <t>534064</t>
+  </si>
+  <si>
+    <t>534068</t>
+  </si>
+  <si>
+    <t>534073</t>
+  </si>
+  <si>
+    <t>534074</t>
+  </si>
+  <si>
+    <t>534078</t>
+  </si>
+  <si>
+    <t>534082</t>
+  </si>
+  <si>
+    <t>534085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1508,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1603,6 +1683,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2181,59 +2262,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
@@ -3977,9 +4058,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4546,7 +4627,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4568,8 +4649,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4849,7 +4930,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -5148,7 +5229,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -5162,32 +5243,33 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:DG2"/>
+  <dimension ref="A1:DJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CK16" sqref="CK16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="17.28515625" customWidth="1"/>
-    <col min="90" max="90" width="17.7109375" customWidth="1"/>
-    <col min="94" max="94" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.140625"/>
+    <col min="9" max="9" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.85546875"/>
+    <col min="12" max="12" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="13" max="15" customWidth="true" width="17.28515625"/>
+    <col min="92" max="92" customWidth="true" width="17.7109375"/>
+    <col min="96" max="96" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" width="10.8515625" collapsed="true"/>
+    <col min="112" max="112" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" width="9.203125" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="11.6953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5218,311 +5300,320 @@
       <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="M1" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="N1" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AK1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AN1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AO1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AP1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AR1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AS1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AT1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AU1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AW1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AX1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AY1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="BA1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="BB1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BC1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BD1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BE1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="BF1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BG1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BH1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BI1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BK1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BL1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BM1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BN1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="BM1" s="22" t="s">
+      <c r="BO1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="BN1" s="22" t="s">
+      <c r="BP1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="BO1" s="22" t="s">
+      <c r="BQ1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="BP1" s="22" t="s">
+      <c r="BR1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="BQ1" s="22" t="s">
+      <c r="BS1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="BR1" s="22" t="s">
+      <c r="BT1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="BS1" s="22" t="s">
+      <c r="BU1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BT1" s="22" t="s">
+      <c r="BV1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="BU1" s="22" t="s">
+      <c r="BW1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BV1" s="22" t="s">
+      <c r="BX1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BW1" s="22" t="s">
+      <c r="BY1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="BX1" s="22" t="s">
+      <c r="BZ1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="BY1" s="22" t="s">
+      <c r="CA1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="BZ1" s="22" t="s">
+      <c r="CB1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="CA1" s="22" t="s">
+      <c r="CC1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="CB1" s="22" t="s">
+      <c r="CD1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="CC1" s="22" t="s">
+      <c r="CE1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CD1" s="22" t="s">
+      <c r="CF1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="CE1" s="22" t="s">
+      <c r="CG1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="CF1" s="22" t="s">
+      <c r="CH1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="CG1" s="23" t="s">
+      <c r="CI1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="CH1" s="23" t="s">
+      <c r="CJ1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="CI1" s="23" t="s">
+      <c r="CK1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="CJ1" s="21" t="s">
+      <c r="CL1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CK1" s="25" t="s">
+      <c r="CM1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CN1" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="CM1" s="19" t="s">
+      <c r="CO1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CP1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" s="19" t="s">
+      <c r="CQ1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CR1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" s="19" t="s">
+      <c r="CS1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CT1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CU1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CV1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="CX1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CY1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="CZ1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="DA1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="CZ1" s="22" t="s">
+      <c r="DB1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="DA1" s="26" t="s">
+      <c r="DC1" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="DD1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="DB1" s="26" t="s">
+      <c r="DE1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="DC1" s="27" t="s">
+      <c r="DF1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="DD1" s="28" t="s">
+      <c r="DG1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="29" t="s">
+      <c r="DH1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="DF1" s="19" t="s">
+      <c r="DI1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="DG1" s="19" t="s">
+      <c r="DJ1" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:111" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -5554,317 +5645,326 @@
         <v>180</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="M2" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AX2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BE2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BF2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BM2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BN2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BO2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BP2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BQ2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BR2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BX2" s="17" t="s">
+      <c r="BZ2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="CA2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BZ2" s="17" t="s">
+      <c r="CB2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CC2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CD2" s="17" t="s">
+      <c r="CF2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CE2" s="17" t="s">
+      <c r="CG2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CF2" s="60" t="s">
+      <c r="CH2" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="CG2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="CI2" s="4" t="s">
         <v>85</v>
       </c>
       <c r="CJ2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL2" s="69" t="s">
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CN2" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="CM2" s="13" t="s">
+      <c r="CO2" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="CN2" s="13" t="s">
+      <c r="CP2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="CO2" s="13" t="s">
+      <c r="CQ2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="CP2" s="13" t="s">
+      <c r="CR2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="CQ2" s="13" t="s">
+      <c r="CS2" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="CR2" s="13" t="s">
+      <c r="CT2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CU2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CT2" s="13">
+      <c r="CV2" s="13">
         <v>8218828905</v>
       </c>
-      <c r="CU2" s="32" t="s">
+      <c r="CW2" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="CV2" s="13" t="s">
+      <c r="CX2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="CW2" s="13" t="s">
+      <c r="CY2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CX2" s="13">
+      <c r="CZ2" s="13">
         <v>8218828905</v>
       </c>
-      <c r="CY2" s="32" t="s">
+      <c r="DA2" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="CZ2" s="16" t="s">
+      <c r="DB2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="DA2" s="15" t="s">
+      <c r="DC2" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="DD2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="DB2" s="16" t="s">
+      <c r="DE2" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="DC2" s="15" t="s">
+      <c r="DF2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="DD2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="DE2" s="7" t="s">
+      <c r="DG2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="DH2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BD1:BJ1">
+  <conditionalFormatting sqref="BF1:BL1">
     <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CU2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="CY2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="L2" r:id="rId3" xr:uid="{FFF5DB8F-5356-4B3F-9CA1-EC35C3F474CC}"/>
+    <hyperlink ref="CW2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="DA2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{FFF5DB8F-5356-4B3F-9CA1-EC35C3F474CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -5881,20 +5981,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="57" width="27.42578125" customWidth="1"/>
-    <col min="58" max="58" width="24.7109375" customWidth="1"/>
-    <col min="59" max="59" width="27.42578125" customWidth="1"/>
-    <col min="100" max="100" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="92.140625" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="28" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="28.0"/>
+    <col min="7" max="7" customWidth="true" width="17.0"/>
+    <col min="11" max="11" customWidth="true" width="34.42578125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="56" max="57" customWidth="true" width="27.42578125"/>
+    <col min="58" max="58" customWidth="true" width="24.7109375"/>
+    <col min="59" max="59" customWidth="true" width="27.42578125"/>
+    <col min="100" max="100" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" width="92.140625" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6207,7 +6307,7 @@
       <c r="CY1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="DA1" s="7" t="s">
@@ -6530,16 +6630,16 @@
       <c r="CY2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="CZ2" t="s" s="0">
         <v>416</v>
       </c>
       <c r="DA2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DB2" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DC2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -6853,16 +6953,16 @@
       <c r="CY3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="CZ3" t="s" s="0">
         <v>403</v>
       </c>
       <c r="DA3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DB3" t="s">
+      <c r="DB3" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="DC3" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -7182,10 +7282,10 @@
       <c r="DA4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DB4" t="s">
+      <c r="DB4" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DC4" t="s">
+      <c r="DC4" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -7499,16 +7599,16 @@
       <c r="CY5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CZ5" t="s">
+      <c r="CZ5" t="s" s="0">
         <v>405</v>
       </c>
       <c r="DA5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DB5" t="s">
+      <c r="DB5" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DC5" t="s">
+      <c r="DC5" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -7542,12 +7642,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8240,7 +8340,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DK2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -8270,12 +8370,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8898,14 +8998,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9527,12 +9627,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9577,7 +9677,7 @@
       <c r="F2" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>256</v>
       </c>
     </row>
@@ -9596,11 +9696,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -9654,7 +9754,7 @@
       <c r="G2" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>260</v>
       </c>
     </row>
@@ -9673,58 +9773,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -10794,14 +10894,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="83" max="84" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="35" customWidth="1"/>
-    <col min="94" max="94" width="11" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.7109375"/>
+    <col min="5" max="5" customWidth="true" width="31.7109375"/>
+    <col min="10" max="10" customWidth="true" width="29.0"/>
+    <col min="83" max="84" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" width="35.0"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14058,12 +14158,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -14128,8 +14228,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14406,7 +14506,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -14702,7 +14802,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CQ2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14724,8 +14824,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15347,11 +15447,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="51" customWidth="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" customWidth="true" width="22.0"/>
+    <col min="10" max="10" customWidth="true" width="51.0"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15948,7 +16048,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -15970,10 +16070,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16595,15 +16695,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" customWidth="1"/>
-    <col min="103" max="103" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="32.85546875"/>
+    <col min="5" max="5" customWidth="true" width="17.140625"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625"/>
+    <col min="8" max="8" customWidth="true" width="30.7109375"/>
+    <col min="9" max="9" customWidth="true" width="24.0"/>
+    <col min="10" max="10" customWidth="true" width="42.28515625"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17233,16 +17333,16 @@
       <c r="CX2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CY2" t="s" s="0">
         <v>378</v>
       </c>
       <c r="CZ2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DA2" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DB2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -17553,16 +17653,16 @@
       <c r="CX3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="CY3" t="s" s="0">
         <v>341</v>
       </c>
       <c r="CZ3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA3" t="s">
+      <c r="DA3" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB3" t="s">
+      <c r="DB3" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -17873,16 +17973,16 @@
       <c r="CX4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY4" t="s">
+      <c r="CY4" t="s" s="0">
         <v>351</v>
       </c>
       <c r="CZ4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA4" t="s">
+      <c r="DA4" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB4" t="s">
+      <c r="DB4" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -18193,16 +18293,16 @@
       <c r="CX5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY5" t="s">
+      <c r="CY5" t="s" s="0">
         <v>341</v>
       </c>
       <c r="CZ5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA5" t="s">
+      <c r="DA5" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB5" t="s">
+      <c r="DB5" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -18513,16 +18613,16 @@
       <c r="CX6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY6" t="s">
+      <c r="CY6" t="s" s="0">
         <v>341</v>
       </c>
       <c r="CZ6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA6" t="s">
+      <c r="DA6" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB6" t="s">
+      <c r="DB6" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -18833,16 +18933,16 @@
       <c r="CX7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY7" t="s">
+      <c r="CY7" t="s" s="0">
         <v>341</v>
       </c>
       <c r="CZ7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA7" t="s">
+      <c r="DA7" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB7" t="s">
+      <c r="DB7" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -19153,16 +19253,16 @@
       <c r="CX8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY8" t="s">
+      <c r="CY8" t="s" s="0">
         <v>351</v>
       </c>
       <c r="CZ8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA8" t="s">
+      <c r="DA8" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB8" t="s">
+      <c r="DB8" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -19473,16 +19573,16 @@
       <c r="CX9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY9" t="s">
+      <c r="CY9" t="s" s="0">
         <v>351</v>
       </c>
       <c r="CZ9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA9" t="s">
+      <c r="DA9" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB9" t="s">
+      <c r="DB9" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -19793,16 +19893,16 @@
       <c r="CX10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY10" t="s">
+      <c r="CY10" t="s" s="0">
         <v>351</v>
       </c>
       <c r="CZ10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA10" t="s">
+      <c r="DA10" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB10" t="s">
+      <c r="DB10" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -20113,16 +20213,16 @@
       <c r="CX11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CY11" t="s">
+      <c r="CY11" t="s" s="0">
         <v>351</v>
       </c>
       <c r="CZ11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DA11" t="s">
+      <c r="DA11" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="DB11" t="s">
+      <c r="DB11" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -20166,23 +20266,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.85546875" customWidth="1"/>
-    <col min="51" max="51" width="24.28515625" customWidth="1"/>
-    <col min="52" max="52" width="36.7109375" customWidth="1"/>
-    <col min="53" max="53" width="33.85546875" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" customWidth="1"/>
-    <col min="55" max="55" width="29" customWidth="1"/>
-    <col min="88" max="88" width="19.85546875" customWidth="1"/>
-    <col min="89" max="89" width="34" customWidth="1"/>
-    <col min="97" max="97" width="21" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="20.85546875"/>
+    <col min="51" max="51" customWidth="true" width="24.28515625"/>
+    <col min="52" max="52" customWidth="true" width="36.7109375"/>
+    <col min="53" max="53" customWidth="true" width="33.85546875"/>
+    <col min="54" max="54" customWidth="true" width="28.140625"/>
+    <col min="55" max="55" customWidth="true" width="29.0"/>
+    <col min="88" max="88" customWidth="true" width="19.85546875"/>
+    <col min="89" max="89" customWidth="true" width="34.0"/>
+    <col min="97" max="97" customWidth="true" width="21.0"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -20480,7 +20580,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -20797,7 +20897,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CX2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -20819,12 +20919,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -21415,7 +21515,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -21437,9 +21537,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -22006,7 +22106,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -22028,9 +22128,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -22627,7 +22727,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -22649,9 +22749,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -23273,7 +23373,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -23870,7 +23970,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -23892,7 +23992,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24172,7 +24272,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -24471,7 +24571,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65ED42B-6472-4F65-A7DE-C6BAE59345B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C4FE5-4F64-4406-8D40-CE167EDCBCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7141" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="436">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -871,12 +871,6 @@
   </si>
   <si>
     <t>Insured</t>
-  </si>
-  <si>
-    <t>PScollected</t>
-  </si>
-  <si>
-    <t>529068</t>
   </si>
   <si>
     <t>529100</t>
@@ -1315,76 +1309,55 @@
     <t>RoleChange</t>
   </si>
   <si>
-    <t>534012</t>
-  </si>
-  <si>
     <t>RoleChangeSU</t>
   </si>
   <si>
     <t>SU</t>
   </si>
   <si>
-    <t>534013</t>
-  </si>
-  <si>
-    <t>534019</t>
-  </si>
-  <si>
-    <t>534039</t>
-  </si>
-  <si>
-    <t>534043</t>
-  </si>
-  <si>
-    <t>534044</t>
-  </si>
-  <si>
-    <t>534047</t>
-  </si>
-  <si>
-    <t>534048</t>
-  </si>
-  <si>
-    <t>534049</t>
-  </si>
-  <si>
-    <t>534050</t>
-  </si>
-  <si>
-    <t>534051</t>
-  </si>
-  <si>
-    <t>534053</t>
-  </si>
-  <si>
-    <t>534054</t>
-  </si>
-  <si>
-    <t>534058</t>
-  </si>
-  <si>
-    <t>534061</t>
-  </si>
-  <si>
-    <t>534064</t>
-  </si>
-  <si>
-    <t>534068</t>
-  </si>
-  <si>
-    <t>534073</t>
-  </si>
-  <si>
-    <t>534074</t>
-  </si>
-  <si>
-    <t>534078</t>
-  </si>
-  <si>
-    <t>534082</t>
-  </si>
-  <si>
     <t>534085</t>
+  </si>
+  <si>
+    <t>CReplaceJH</t>
+  </si>
+  <si>
+    <t>Yes, only John Hancock policies</t>
+  </si>
+  <si>
+    <t>ET.FAmtRiders</t>
+  </si>
+  <si>
+    <t>Cplan</t>
+  </si>
+  <si>
+    <t>Existing.SSN</t>
+  </si>
+  <si>
+    <t>236457569</t>
+  </si>
+  <si>
+    <t>534303</t>
+  </si>
+  <si>
+    <t>534315</t>
+  </si>
+  <si>
+    <t>534318</t>
+  </si>
+  <si>
+    <t>534358</t>
+  </si>
+  <si>
+    <t>534361</t>
+  </si>
+  <si>
+    <t>534362</t>
+  </si>
+  <si>
+    <t>534363</t>
+  </si>
+  <si>
+    <t>534377</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1683,7 +1656,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2319,7 +2291,7 @@
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2606,7 +2578,7 @@
     </row>
     <row r="2" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -2849,7 +2821,7 @@
         <v>163</v>
       </c>
       <c r="CD2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>85</v>
@@ -2879,7 +2851,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -2893,7 +2865,7 @@
     </row>
     <row r="3" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -3136,7 +3108,7 @@
         <v>163</v>
       </c>
       <c r="CD3" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CE3" s="4" t="s">
         <v>85</v>
@@ -3180,7 +3152,7 @@
     </row>
     <row r="4" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
@@ -3423,7 +3395,7 @@
         <v>163</v>
       </c>
       <c r="CD4" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CE4" s="4" t="s">
         <v>85</v>
@@ -3467,7 +3439,7 @@
     </row>
     <row r="5" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -3710,7 +3682,7 @@
         <v>163</v>
       </c>
       <c r="CD5" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CE5" s="4" t="s">
         <v>85</v>
@@ -3754,7 +3726,7 @@
     </row>
     <row r="6" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
@@ -3997,7 +3969,7 @@
         <v>163</v>
       </c>
       <c r="CD6" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CE6" s="4" t="s">
         <v>85</v>
@@ -4700,10 +4672,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>11</v>
@@ -4972,7 +4944,7 @@
         <v>239</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -4990,7 +4962,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>60</v>
@@ -5221,7 +5193,7 @@
         <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP2" s="7" t="s">
         <v>87</v>
@@ -5245,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:DJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CN1" sqref="CN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,10 +5235,10 @@
     <col min="100" max="100" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="104" max="104" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="110" max="110" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" width="10.8515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
     <col min="112" max="112" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" width="9.203125" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" width="11.6953125" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5292,7 +5264,7 @@
         <v>169</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>4</v>
@@ -5300,20 +5272,20 @@
       <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="70" t="s">
-        <v>422</v>
+      <c r="K1" s="30" t="s">
+        <v>419</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>168</v>
       </c>
       <c r="M1" s="68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>6</v>
@@ -5544,7 +5516,7 @@
         <v>47</v>
       </c>
       <c r="CN1" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="CO1" s="19" t="s">
         <v>181</v>
@@ -5589,7 +5561,7 @@
         <v>92</v>
       </c>
       <c r="DC1" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="DD1" s="26" t="s">
         <v>90</v>
@@ -5645,19 +5617,19 @@
         <v>180</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>57</v>
@@ -5870,7 +5842,7 @@
         <v>163</v>
       </c>
       <c r="CH2" s="60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CI2" s="4" t="s">
         <v>85</v>
@@ -5933,19 +5905,19 @@
         <v>89</v>
       </c>
       <c r="DC2" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="DD2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="DE2" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="DF2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="DH2" s="7" t="s">
         <v>87</v>
@@ -6029,13 +6001,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -6068,16 +6040,16 @@
         <v>15</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>16</v>
@@ -6152,7 +6124,7 @@
         <v>39</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BA1" s="6" t="s">
         <v>40</v>
@@ -6164,16 +6136,16 @@
         <v>42</v>
       </c>
       <c r="BD1" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE1" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="BF1" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="BG1" s="61" t="s">
         <v>324</v>
-      </c>
-      <c r="BE1" s="61" t="s">
-        <v>400</v>
-      </c>
-      <c r="BF1" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="BG1" s="61" t="s">
-        <v>326</v>
       </c>
       <c r="BH1" s="4" t="s">
         <v>99</v>
@@ -6296,7 +6268,7 @@
         <v>92</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="CW1" s="14" t="s">
         <v>90</v>
@@ -6349,22 +6321,22 @@
         <v>223</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K2" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>97</v>
@@ -6394,13 +6366,13 @@
         <v>163</v>
       </c>
       <c r="Y2" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA2" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>64</v>
@@ -6475,28 +6447,28 @@
         <v>72</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA2" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB2" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD2" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE2" s="60" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BF2" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>133</v>
@@ -6598,7 +6570,7 @@
         <v>163</v>
       </c>
       <c r="CO2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CP2" s="4" t="s">
         <v>85</v>
@@ -6619,19 +6591,19 @@
         <v>89</v>
       </c>
       <c r="CV2" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CW2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CX2" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CY2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CZ2" t="s" s="0">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="DA2" s="7" t="s">
         <v>87</v>
@@ -6672,22 +6644,22 @@
         <v>265</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K3" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>97</v>
@@ -6717,13 +6689,13 @@
         <v>163</v>
       </c>
       <c r="Y3" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA3" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>64</v>
@@ -6798,28 +6770,28 @@
         <v>72</v>
       </c>
       <c r="AZ3" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA3" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB3" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD3" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE3" s="60" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BF3" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>133</v>
@@ -6921,7 +6893,7 @@
         <v>163</v>
       </c>
       <c r="CO3" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CP3" s="4" t="s">
         <v>85</v>
@@ -6942,19 +6914,19 @@
         <v>89</v>
       </c>
       <c r="CV3" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CW3" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CX3" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CY3" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CZ3" t="s" s="0">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="DA3" s="7" t="s">
         <v>87</v>
@@ -6995,22 +6967,22 @@
         <v>262</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>97</v>
@@ -7040,13 +7012,13 @@
         <v>163</v>
       </c>
       <c r="Y4" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA4" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>64</v>
@@ -7121,28 +7093,28 @@
         <v>72</v>
       </c>
       <c r="AZ4" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA4" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB4" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD4" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE4" s="60" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>133</v>
@@ -7244,7 +7216,7 @@
         <v>163</v>
       </c>
       <c r="CO4" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CP4" s="4" t="s">
         <v>85</v>
@@ -7265,19 +7237,19 @@
         <v>89</v>
       </c>
       <c r="CV4" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CW4" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CX4" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CY4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="DA4" s="7" t="s">
         <v>87</v>
@@ -7312,28 +7284,28 @@
         <v>237</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>239</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>97</v>
@@ -7363,13 +7335,13 @@
         <v>163</v>
       </c>
       <c r="Y5" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA5" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA5" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>64</v>
@@ -7444,28 +7416,28 @@
         <v>72</v>
       </c>
       <c r="AZ5" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA5" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB5" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD5" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE5" s="60" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BF5" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BH5" s="1" t="s">
         <v>133</v>
@@ -7567,7 +7539,7 @@
         <v>163</v>
       </c>
       <c r="CO5" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CP5" s="4" t="s">
         <v>85</v>
@@ -7588,19 +7560,19 @@
         <v>89</v>
       </c>
       <c r="CV5" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CW5" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CX5" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CY5" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CZ5" t="s" s="0">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="DA5" s="7" t="s">
         <v>87</v>
@@ -7634,23 +7606,29 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:DK3"/>
+  <dimension ref="A1:DP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.85546875"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875"/>
+    <col min="10" max="10" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="22.28515625"/>
+    <col min="56" max="56" customWidth="true" width="23.28515625"/>
+    <col min="66" max="66" customWidth="true" width="32.5703125"/>
+    <col min="95" max="99" customWidth="true" width="34.7109375"/>
+    <col min="115" max="115" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" width="10.8515625" collapsed="true"/>
+    <col min="119" max="119" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="120" max="120" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:120" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7675,329 +7653,344 @@
       <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AK1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AN1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AO1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AP1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AR1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AS1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AT1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AU1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AW1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AX1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AY1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="BA1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BB1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BC1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BD1" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BE1" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BF1" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BG1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BH1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BI1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BK1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BL1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BM1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="BM1" s="22" t="s">
+      <c r="BN1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="BN1" s="22" t="s">
+      <c r="BO1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="BO1" s="22" t="s">
+      <c r="BP1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BP1" s="22" t="s">
+      <c r="BQ1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="BQ1" s="22" t="s">
+      <c r="BR1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="BR1" s="22" t="s">
+      <c r="BS1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="BS1" s="22" t="s">
+      <c r="BT1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="BT1" s="22" t="s">
+      <c r="BU1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="BU1" s="22" t="s">
+      <c r="BV1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="BV1" s="22" t="s">
+      <c r="BW1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="BW1" s="22" t="s">
+      <c r="BX1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BX1" s="22" t="s">
+      <c r="BY1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="BY1" s="22" t="s">
+      <c r="BZ1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BZ1" s="22" t="s">
+      <c r="CA1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="CA1" s="22" t="s">
+      <c r="CB1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="CB1" s="22" t="s">
+      <c r="CC1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="CC1" s="22" t="s">
+      <c r="CD1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="CD1" s="22" t="s">
+      <c r="CE1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="CE1" s="22" t="s">
+      <c r="CF1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="CF1" s="22" t="s">
+      <c r="CG1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="CG1" s="22" t="s">
+      <c r="CH1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CH1" s="22" t="s">
+      <c r="CI1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="22" t="s">
+      <c r="CJ1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="CJ1" s="22" t="s">
+      <c r="CK1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="CK1" s="23" t="s">
+      <c r="CL1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="CL1" s="23" t="s">
+      <c r="CM1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="CM1" s="23" t="s">
+      <c r="CN1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="CN1" s="21" t="s">
+      <c r="CO1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CO1" s="25" t="s">
+      <c r="CP1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CP1" s="19" t="s">
-        <v>274</v>
-      </c>
       <c r="CQ1" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="CR1" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="CS1" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="CT1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="CU1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="CV1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CX1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CY1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CZ1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="DA1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="DB1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="DC1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="DD1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="CZ1" s="19" t="s">
+      <c r="DE1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="DA1" s="19" t="s">
+      <c r="DF1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="DB1" s="19" t="s">
+      <c r="DG1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="DC1" s="19" t="s">
+      <c r="DH1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="DD1" s="22" t="s">
+      <c r="DI1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="DE1" s="26" t="s">
+      <c r="DJ1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="DF1" s="26" t="s">
+      <c r="DK1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="DG1" s="27" t="s">
+      <c r="DL1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="DH1" s="28" t="s">
+      <c r="DM1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="DI1" s="29" t="s">
+      <c r="DN1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="DJ1" s="19" t="s">
+      <c r="DO1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="DK1" s="19" t="s">
+      <c r="DP1" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:115" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:120" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -8017,254 +8010,254 @@
         <v>178</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>73</v>
       </c>
       <c r="AJ2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="11" t="s">
+      <c r="AX2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BE2" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BG2" s="17" t="s">
+      <c r="BH2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BI2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BO2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BP2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BQ2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BQ2" s="17" t="s">
+      <c r="BR2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BR2" s="17" t="s">
+      <c r="BS2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BT2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CC2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="CC2" s="17" t="s">
+      <c r="CD2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CD2" s="17" t="s">
+      <c r="CE2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CE2" s="17" t="s">
+      <c r="CF2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CH2" s="17" t="s">
+      <c r="CI2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CI2" s="17" t="s">
+      <c r="CJ2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CJ2" s="17" t="s">
+      <c r="CK2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="CK2" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="CL2" s="4" t="s">
         <v>85</v>
       </c>
@@ -8274,86 +8267,104 @@
       <c r="CN2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CO2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CP2" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="CQ2" s="13" t="s">
+      <c r="CO2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CP2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ2" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="CR2" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="CS2" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="CT2" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="CU2" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="CV2" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="CR2" s="13" t="s">
+      <c r="CW2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CX2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="CT2" s="13" t="s">
+      <c r="CY2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="CU2" s="13" t="s">
+      <c r="CZ2" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="CV2" s="13" t="s">
+      <c r="DA2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="CW2" s="13" t="s">
+      <c r="DB2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CX2" s="13">
+      <c r="DC2" s="13">
         <v>8218828905</v>
       </c>
-      <c r="CY2" s="32" t="s">
+      <c r="DD2" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="CZ2" s="13" t="s">
+      <c r="DE2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="DA2" s="13" t="s">
+      <c r="DF2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="DB2" s="13">
+      <c r="DG2" s="13">
         <v>8218828905</v>
       </c>
-      <c r="DC2" s="32" t="s">
+      <c r="DH2" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="DD2" s="16" t="s">
+      <c r="DI2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="DE2" s="15" t="s">
+      <c r="DJ2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="DF2" s="16" t="s">
+      <c r="DK2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="DG2" s="15" t="s">
+      <c r="DL2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="DH2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="DI2" s="7" t="s">
+      <c r="DM2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="DN2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s" s="0">
+      <c r="DP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="BD3" s="34"/>
+    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="BE3" s="34"/>
+      <c r="DM3" t="s" s="0">
+        <v>435</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BH1:BN1">
+  <conditionalFormatting sqref="BI1:BO1">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CY2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="DC2" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="DD2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="DH2" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -8970,7 +8981,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -10383,7 +10394,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="CN2" s="7" t="s">
         <v>87</v>
@@ -10906,7 +10917,7 @@
   <sheetData>
     <row r="1" spans="1:97" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -10939,10 +10950,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>6</v>
@@ -11199,7 +11210,7 @@
     </row>
     <row r="2" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -11211,10 +11222,10 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>203</v>
@@ -11226,16 +11237,16 @@
         <v>179</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
@@ -11448,7 +11459,7 @@
         <v>163</v>
       </c>
       <c r="CF2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG2" s="4" t="s">
         <v>85</v>
@@ -11472,13 +11483,13 @@
         <v>96</v>
       </c>
       <c r="CN2" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="CQ2" s="7" t="s">
         <v>87</v>
@@ -11492,7 +11503,7 @@
     </row>
     <row r="3" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -11504,10 +11515,10 @@
         <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>203</v>
@@ -11516,19 +11527,19 @@
         <v>237</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>57</v>
@@ -11741,7 +11752,7 @@
         <v>163</v>
       </c>
       <c r="CF3" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG3" s="4" t="s">
         <v>85</v>
@@ -11765,13 +11776,13 @@
         <v>96</v>
       </c>
       <c r="CN3" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO3" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="CQ3" s="7" t="s">
         <v>87</v>
@@ -11785,7 +11796,7 @@
     </row>
     <row r="4" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
@@ -11797,10 +11808,10 @@
         <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>203</v>
@@ -11809,19 +11820,19 @@
         <v>237</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>57</v>
@@ -12034,7 +12045,7 @@
         <v>163</v>
       </c>
       <c r="CF4" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG4" s="4" t="s">
         <v>85</v>
@@ -12058,13 +12069,13 @@
         <v>96</v>
       </c>
       <c r="CN4" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="CQ4" s="7" t="s">
         <v>87</v>
@@ -12078,7 +12089,7 @@
     </row>
     <row r="5" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -12090,10 +12101,10 @@
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>203</v>
@@ -12102,22 +12113,22 @@
         <v>237</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>58</v>
@@ -12327,7 +12338,7 @@
         <v>163</v>
       </c>
       <c r="CF5" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG5" s="4" t="s">
         <v>85</v>
@@ -12351,13 +12362,13 @@
         <v>96</v>
       </c>
       <c r="CN5" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO5" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CQ5" s="7" t="s">
         <v>87</v>
@@ -12371,7 +12382,7 @@
     </row>
     <row r="6" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
@@ -12383,10 +12394,10 @@
         <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>203</v>
@@ -12395,22 +12406,22 @@
         <v>237</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N6" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>58</v>
@@ -12620,7 +12631,7 @@
         <v>163</v>
       </c>
       <c r="CF6" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG6" s="4" t="s">
         <v>85</v>
@@ -12644,13 +12655,13 @@
         <v>96</v>
       </c>
       <c r="CN6" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO6" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="CQ6" s="7" t="s">
         <v>87</v>
@@ -12664,7 +12675,7 @@
     </row>
     <row r="7" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
@@ -12676,10 +12687,10 @@
         <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>203</v>
@@ -12691,19 +12702,19 @@
         <v>245</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N7" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>58</v>
@@ -12913,7 +12924,7 @@
         <v>163</v>
       </c>
       <c r="CF7" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG7" s="4" t="s">
         <v>85</v>
@@ -12937,13 +12948,13 @@
         <v>96</v>
       </c>
       <c r="CN7" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO7" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CQ7" s="7" t="s">
         <v>87</v>
@@ -12957,7 +12968,7 @@
     </row>
     <row r="8" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
@@ -12969,10 +12980,10 @@
         <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>203</v>
@@ -12981,22 +12992,22 @@
         <v>237</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N8" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>58</v>
@@ -13206,7 +13217,7 @@
         <v>163</v>
       </c>
       <c r="CF8" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG8" s="4" t="s">
         <v>85</v>
@@ -13230,13 +13241,13 @@
         <v>96</v>
       </c>
       <c r="CN8" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO8" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="CQ8" s="7" t="s">
         <v>87</v>
@@ -13250,7 +13261,7 @@
     </row>
     <row r="9" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
@@ -13262,10 +13273,10 @@
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>203</v>
@@ -13274,22 +13285,22 @@
         <v>237</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N9" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>58</v>
@@ -13499,7 +13510,7 @@
         <v>163</v>
       </c>
       <c r="CF9" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG9" s="4" t="s">
         <v>85</v>
@@ -13523,13 +13534,13 @@
         <v>96</v>
       </c>
       <c r="CN9" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO9" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="CQ9" s="7" t="s">
         <v>87</v>
@@ -13543,7 +13554,7 @@
     </row>
     <row r="10" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -13555,10 +13566,10 @@
         <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>203</v>
@@ -13567,22 +13578,22 @@
         <v>237</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N10" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>58</v>
@@ -13792,7 +13803,7 @@
         <v>163</v>
       </c>
       <c r="CF10" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG10" s="4" t="s">
         <v>85</v>
@@ -13816,13 +13827,13 @@
         <v>96</v>
       </c>
       <c r="CN10" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="CQ10" s="7" t="s">
         <v>87</v>
@@ -13836,7 +13847,7 @@
     </row>
     <row r="11" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
@@ -13848,10 +13859,10 @@
         <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>203</v>
@@ -13860,22 +13871,22 @@
         <v>237</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N11" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>58</v>
@@ -14085,7 +14096,7 @@
         <v>163</v>
       </c>
       <c r="CF11" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CG11" s="4" t="s">
         <v>85</v>
@@ -14109,13 +14120,13 @@
         <v>96</v>
       </c>
       <c r="CN11" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CO11" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="CQ11" s="7" t="s">
         <v>87</v>
@@ -14234,7 +14245,7 @@
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -14521,7 +14532,7 @@
     </row>
     <row r="2" spans="1:95" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -14557,7 +14568,7 @@
         <v>57</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>97</v>
@@ -14764,7 +14775,7 @@
         <v>163</v>
       </c>
       <c r="CD2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>85</v>
@@ -14794,7 +14805,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -15165,7 +15176,7 @@
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -15501,7 +15512,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="42" t="s">
         <v>11</v>
@@ -15552,7 +15563,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AH1" s="44" t="s">
         <v>27</v>
@@ -15591,16 +15602,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AU1" s="44" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AW1" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AX1" s="44" t="s">
         <v>40</v>
@@ -15782,13 +15793,13 @@
         <v>265</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -15800,7 +15811,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>59</v>
@@ -15896,10 +15907,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX2" s="11" t="s">
         <v>83</v>
@@ -16034,7 +16045,7 @@
         <v>96</v>
       </c>
       <c r="CP2" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CQ2" s="15" t="s">
         <v>93</v>
@@ -16407,13 +16418,13 @@
         <v>223</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -16656,19 +16667,19 @@
         <v>234</v>
       </c>
       <c r="CO2" s="57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CP2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CQ2" s="57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CR2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -16738,13 +16749,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>339</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>6</v>
@@ -16777,16 +16788,16 @@
         <v>15</v>
       </c>
       <c r="X1" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>313</v>
       </c>
       <c r="AB1" s="23" t="s">
         <v>16</v>
@@ -16861,7 +16872,7 @@
         <v>39</v>
       </c>
       <c r="AZ1" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BA1" s="24" t="s">
         <v>40</v>
@@ -16873,13 +16884,13 @@
         <v>42</v>
       </c>
       <c r="BD1" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE1" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF1" s="67" t="s">
         <v>324</v>
-      </c>
-      <c r="BE1" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="BF1" s="67" t="s">
-        <v>326</v>
       </c>
       <c r="BG1" s="22" t="s">
         <v>99</v>
@@ -17002,7 +17013,7 @@
         <v>92</v>
       </c>
       <c r="CU1" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="CV1" s="26" t="s">
         <v>90</v>
@@ -17037,10 +17048,10 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>203</v>
@@ -17049,28 +17060,28 @@
         <v>225</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K2" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>97</v>
@@ -17100,13 +17111,13 @@
         <v>163</v>
       </c>
       <c r="Y2" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA2" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>64</v>
@@ -17181,25 +17192,25 @@
         <v>72</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA2" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB2" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD2" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE2" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>133</v>
@@ -17301,7 +17312,7 @@
         <v>163</v>
       </c>
       <c r="CN2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO2" s="4" t="s">
         <v>85</v>
@@ -17322,19 +17333,19 @@
         <v>89</v>
       </c>
       <c r="CU2" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW2" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY2" t="s" s="0">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="CZ2" s="7" t="s">
         <v>87</v>
@@ -17357,10 +17368,10 @@
         <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>203</v>
@@ -17369,28 +17380,28 @@
         <v>225</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K3" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>97</v>
@@ -17420,13 +17431,13 @@
         <v>163</v>
       </c>
       <c r="Y3" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA3" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>64</v>
@@ -17501,25 +17512,25 @@
         <v>72</v>
       </c>
       <c r="AZ3" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA3" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB3" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD3" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE3" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>133</v>
@@ -17621,7 +17632,7 @@
         <v>163</v>
       </c>
       <c r="CN3" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO3" s="4" t="s">
         <v>85</v>
@@ -17642,19 +17653,19 @@
         <v>89</v>
       </c>
       <c r="CU3" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV3" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW3" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX3" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY3" t="s" s="0">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CZ3" s="7" t="s">
         <v>87</v>
@@ -17677,10 +17688,10 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>342</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>344</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>203</v>
@@ -17689,28 +17700,28 @@
         <v>225</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>97</v>
@@ -17740,13 +17751,13 @@
         <v>163</v>
       </c>
       <c r="Y4" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA4" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>64</v>
@@ -17821,25 +17832,25 @@
         <v>72</v>
       </c>
       <c r="AZ4" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA4" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB4" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD4" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE4" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>133</v>
@@ -17941,7 +17952,7 @@
         <v>163</v>
       </c>
       <c r="CN4" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO4" s="4" t="s">
         <v>85</v>
@@ -17962,19 +17973,19 @@
         <v>89</v>
       </c>
       <c r="CU4" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV4" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW4" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY4" t="s" s="0">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CZ4" s="7" t="s">
         <v>87</v>
@@ -17997,10 +18008,10 @@
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>203</v>
@@ -18012,25 +18023,25 @@
         <v>179</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>97</v>
@@ -18060,13 +18071,13 @@
         <v>163</v>
       </c>
       <c r="Y5" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA5" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA5" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>64</v>
@@ -18141,25 +18152,25 @@
         <v>72</v>
       </c>
       <c r="AZ5" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA5" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB5" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD5" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE5" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>133</v>
@@ -18261,7 +18272,7 @@
         <v>163</v>
       </c>
       <c r="CN5" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO5" s="4" t="s">
         <v>85</v>
@@ -18282,19 +18293,19 @@
         <v>89</v>
       </c>
       <c r="CU5" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV5" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW5" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX5" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY5" t="s" s="0">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CZ5" s="7" t="s">
         <v>87</v>
@@ -18317,10 +18328,10 @@
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>203</v>
@@ -18329,28 +18340,28 @@
         <v>225</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>97</v>
@@ -18380,13 +18391,13 @@
         <v>163</v>
       </c>
       <c r="Y6" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z6" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA6" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z6" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA6" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>64</v>
@@ -18461,25 +18472,25 @@
         <v>72</v>
       </c>
       <c r="AZ6" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA6" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB6" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD6" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE6" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>133</v>
@@ -18581,7 +18592,7 @@
         <v>163</v>
       </c>
       <c r="CN6" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO6" s="4" t="s">
         <v>85</v>
@@ -18602,19 +18613,19 @@
         <v>89</v>
       </c>
       <c r="CU6" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV6" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW6" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX6" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY6" t="s" s="0">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CZ6" s="7" t="s">
         <v>87</v>
@@ -18637,7 +18648,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>175</v>
@@ -18649,28 +18660,28 @@
         <v>225</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>97</v>
@@ -18700,13 +18711,13 @@
         <v>163</v>
       </c>
       <c r="Y7" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z7" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA7" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z7" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA7" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>64</v>
@@ -18781,25 +18792,25 @@
         <v>72</v>
       </c>
       <c r="AZ7" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA7" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB7" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC7" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD7" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE7" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>133</v>
@@ -18901,7 +18912,7 @@
         <v>163</v>
       </c>
       <c r="CN7" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO7" s="4" t="s">
         <v>85</v>
@@ -18922,19 +18933,19 @@
         <v>89</v>
       </c>
       <c r="CU7" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV7" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW7" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX7" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY7" t="s" s="0">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CZ7" s="7" t="s">
         <v>87</v>
@@ -18957,7 +18968,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>175</v>
@@ -18969,28 +18980,28 @@
         <v>225</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K8" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>97</v>
@@ -19020,13 +19031,13 @@
         <v>163</v>
       </c>
       <c r="Y8" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z8" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA8" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z8" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA8" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>64</v>
@@ -19101,25 +19112,25 @@
         <v>72</v>
       </c>
       <c r="AZ8" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA8" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB8" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD8" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE8" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>133</v>
@@ -19221,7 +19232,7 @@
         <v>163</v>
       </c>
       <c r="CN8" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO8" s="4" t="s">
         <v>85</v>
@@ -19242,19 +19253,19 @@
         <v>89</v>
       </c>
       <c r="CU8" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV8" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW8" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX8" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY8" t="s" s="0">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CZ8" s="7" t="s">
         <v>87</v>
@@ -19277,7 +19288,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>175</v>
@@ -19289,28 +19300,28 @@
         <v>225</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>97</v>
@@ -19340,13 +19351,13 @@
         <v>163</v>
       </c>
       <c r="Y9" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z9" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA9" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z9" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA9" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>64</v>
@@ -19421,25 +19432,25 @@
         <v>72</v>
       </c>
       <c r="AZ9" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA9" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB9" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC9" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD9" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE9" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>133</v>
@@ -19541,7 +19552,7 @@
         <v>163</v>
       </c>
       <c r="CN9" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO9" s="4" t="s">
         <v>85</v>
@@ -19562,19 +19573,19 @@
         <v>89</v>
       </c>
       <c r="CU9" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV9" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW9" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX9" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY9" t="s" s="0">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CZ9" s="7" t="s">
         <v>87</v>
@@ -19597,7 +19608,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>175</v>
@@ -19609,28 +19620,28 @@
         <v>225</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>97</v>
@@ -19660,13 +19671,13 @@
         <v>163</v>
       </c>
       <c r="Y10" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z10" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA10" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z10" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA10" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>64</v>
@@ -19741,25 +19752,25 @@
         <v>72</v>
       </c>
       <c r="AZ10" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA10" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB10" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC10" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD10" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE10" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>133</v>
@@ -19861,7 +19872,7 @@
         <v>163</v>
       </c>
       <c r="CN10" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO10" s="4" t="s">
         <v>85</v>
@@ -19882,19 +19893,19 @@
         <v>89</v>
       </c>
       <c r="CU10" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV10" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW10" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY10" t="s" s="0">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CZ10" s="7" t="s">
         <v>87</v>
@@ -19929,28 +19940,28 @@
         <v>225</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>97</v>
@@ -19980,13 +19991,13 @@
         <v>163</v>
       </c>
       <c r="Y11" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z11" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA11" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="Z11" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA11" s="59" t="s">
-        <v>317</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>64</v>
@@ -20061,25 +20072,25 @@
         <v>72</v>
       </c>
       <c r="AZ11" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BA11" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BB11" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BC11" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD11" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BE11" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>133</v>
@@ -20181,7 +20192,7 @@
         <v>163</v>
       </c>
       <c r="CN11" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CO11" s="4" t="s">
         <v>85</v>
@@ -20202,19 +20213,19 @@
         <v>89</v>
       </c>
       <c r="CU11" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV11" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW11" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CX11" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY11" t="s" s="0">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CZ11" s="7" t="s">
         <v>87</v>
@@ -20305,7 +20316,7 @@
         <v>168</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>177</v>
@@ -20335,10 +20346,10 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>11</v>
@@ -20428,10 +20439,10 @@
         <v>39</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AX1" s="6" t="s">
         <v>40</v>
@@ -20443,13 +20454,13 @@
         <v>42</v>
       </c>
       <c r="BA1" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB1" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC1" s="61" t="s">
         <v>324</v>
-      </c>
-      <c r="BB1" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="BC1" s="61" t="s">
-        <v>326</v>
       </c>
       <c r="BD1" s="4" t="s">
         <v>99</v>
@@ -20551,7 +20562,7 @@
         <v>131</v>
       </c>
       <c r="CK1" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="CL1" s="5" t="s">
         <v>43</v>
@@ -20625,7 +20636,7 @@
         <v>239</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>57</v>
@@ -20643,7 +20654,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>60</v>
@@ -20736,28 +20747,28 @@
         <v>72</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX2" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AY2" s="62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>133</v>
@@ -20883,13 +20894,13 @@
         <v>96</v>
       </c>
       <c r="CS2" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CT2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -20971,10 +20982,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="51" t="s">
         <v>10</v>
@@ -21067,10 +21078,10 @@
         <v>39</v>
       </c>
       <c r="AU1" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AV1" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AW1" s="24" t="s">
         <v>40</v>
@@ -21252,7 +21263,7 @@
         <v>239</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -21267,7 +21278,7 @@
         <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>270</v>
@@ -21363,10 +21374,10 @@
         <v>72</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>83</v>
@@ -21477,7 +21488,7 @@
         <v>163</v>
       </c>
       <c r="CG2" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="CH2" s="4" t="s">
         <v>85</v>
@@ -21507,7 +21518,7 @@
         <v>93</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="CR2" s="7" t="s">
         <v>87</v>
@@ -21861,7 +21872,7 @@
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -22068,7 +22079,7 @@
         <v>163</v>
       </c>
       <c r="CC2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>85</v>
@@ -22098,7 +22109,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="CN2" s="7" t="s">
         <v>87</v>
@@ -22180,7 +22191,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="42" t="s">
         <v>11</v>
@@ -22231,7 +22242,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AH1" s="44" t="s">
         <v>27</v>
@@ -22270,16 +22281,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AU1" s="44" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AW1" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AX1" s="44" t="s">
         <v>40</v>
@@ -22461,13 +22472,13 @@
         <v>265</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -22479,7 +22490,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>59</v>
@@ -22575,10 +22586,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX2" s="11" t="s">
         <v>83</v>
@@ -22719,7 +22730,7 @@
         <v>93</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
@@ -23085,7 +23096,7 @@
         <v>223</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -23346,7 +23357,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -23423,7 +23434,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="42" t="s">
         <v>11</v>
@@ -23474,7 +23485,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AH1" s="44" t="s">
         <v>27</v>
@@ -23513,16 +23524,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AU1" s="44" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AW1" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AX1" s="44" t="s">
         <v>40</v>
@@ -23704,13 +23715,13 @@
         <v>265</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -23722,7 +23733,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>59</v>
@@ -23818,10 +23829,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX2" s="11" t="s">
         <v>83</v>
@@ -23932,7 +23943,7 @@
         <v>163</v>
       </c>
       <c r="CH2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CI2" s="4" t="s">
         <v>85</v>
@@ -23962,7 +23973,7 @@
         <v>93</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
@@ -24042,10 +24053,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>11</v>
@@ -24314,7 +24325,7 @@
         <v>239</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -24332,7 +24343,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>60</v>
@@ -24533,7 +24544,7 @@
         <v>163</v>
       </c>
       <c r="CE2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CF2" s="4" t="s">
         <v>85</v>
@@ -24563,7 +24574,7 @@
         <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="CP2" s="7" t="s">
         <v>87</v>

--- a/target/test-classes/testData/TestSuite1Data.xlsx
+++ b/target/test-classes/testData/TestSuite1Data.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9294" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9300" uniqueCount="487">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1502,6 +1502,24 @@
   </si>
   <si>
     <t>547550</t>
+  </si>
+  <si>
+    <t>547556</t>
+  </si>
+  <si>
+    <t>547560</t>
+  </si>
+  <si>
+    <t>547562</t>
+  </si>
+  <si>
+    <t>547568</t>
+  </si>
+  <si>
+    <t>547655</t>
+  </si>
+  <si>
+    <t>547657</t>
   </si>
 </sst>
 </file>
@@ -6163,7 +6181,7 @@
         <v>93</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="DH2" s="7" t="s">
         <v>87</v>
